--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.342</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.989</v>
+        <v>20.449</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.619</v>
+        <v>-1.008</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.302</v>
+        <v>24.833</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.975</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.56</v>
+        <v>17.276</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>33.95697128248889</v>
+        <v>-5.118520014135946</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>33.95697128248889</v>
+        <v>27.42072573177311</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.95697128248889</v>
+        <v>34.90029830208002</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33.95697128248889</v>
+        <v>2.542372748444201</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33.95697128248889</v>
+        <v>23.97837288203116</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33.95697128248889</v>
+        <v>29.92099278264684</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>33.95697128248889</v>
+        <v>16.38287208654081</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.95697128248889</v>
+        <v>34.16538448577305</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.95697128248889</v>
+        <v>39.45069586696261</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.95697128248889</v>
+        <v>41.90452572927823</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>33.95697128248889</v>
+        <v>48.77016386730563</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.95697128248889</v>
+        <v>54.075708722283</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>33.95697128248889</v>
+        <v>14.69046835248808</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33.95697128248889</v>
+        <v>43.34279780654081</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.95697128248889</v>
+        <v>50.78691146457957</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>33.95697128248889</v>
+        <v>-0.9439381807968843</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>33.95697128248889</v>
+        <v>31.60006485018548</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.95697128248889</v>
+        <v>39.08382757264392</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>33.95697128248889</v>
+        <v>6.710511278804894</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33.95697128248889</v>
+        <v>28.15049275084105</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.95697128248889</v>
+        <v>34.09740081107041</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>33.95697128248889</v>
+        <v>20.55740903440981</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>33.95697128248889</v>
+        <v>38.34414973379601</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>33.95697128248889</v>
+        <v>43.63312400632433</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.95697128248889</v>
+        <v>46.08412055673634</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.95697128248889</v>
+        <v>52.95154159002968</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>33.95697128248889</v>
+        <v>58.25962288506046</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.95697128248889</v>
+        <v>18.86913771465854</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.95697128248889</v>
+        <v>47.52949293226877</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>33.95697128248889</v>
+        <v>54.97595762883245</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>33.95697128248889</v>
+        <v>13.08475936334433</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.95697128248889</v>
+        <v>45.63166878307263</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>33.95697128248889</v>
+        <v>53.11513028985721</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>33.95697128248889</v>
+        <v>20.74701792298286</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>33.95697128248889</v>
+        <v>42.19037351739846</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>33.95697128248889</v>
+        <v>48.13673427575052</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>33.95697128248889</v>
+        <v>34.59761103936874</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>33.95697128248889</v>
+        <v>52.38699098206801</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>33.95697128248889</v>
+        <v>57.67575109614527</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.95697128248889</v>
+        <v>60.13475827815771</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33.95697128248889</v>
+        <v>67.00290752380326</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>33.95697128248889</v>
+        <v>72.31151264237948</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.95697128248889</v>
+        <v>32.91492480778854</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.95697128248889</v>
+        <v>61.57909535315614</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>33.95697128248889</v>
+        <v>69.02559304449616</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>33.95697128248889</v>
+        <v>-1.17231612235971</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>33.95697128248889</v>
+        <v>31.36750053491821</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.95697128248889</v>
+        <v>38.84612263071083</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>33.95697128248889</v>
+        <v>6.489728275880431</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>33.95697128248889</v>
+        <v>27.92667965072676</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.95697128248889</v>
+        <v>33.86828530131854</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.95697128248889</v>
+        <v>20.33041797301755</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>33.95697128248889</v>
+        <v>38.11385432486825</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.95697128248889</v>
+        <v>43.39831860766547</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.95697128248889</v>
+        <v>45.8521752694239</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>33.95697128248889</v>
+        <v>52.71856855710687</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>33.95697128248889</v>
+        <v>58.02288062408852</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>33.95697128248889</v>
+        <v>18.63674986898477</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.95697128248889</v>
+        <v>47.29031545147732</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.95697128248889</v>
+        <v>54.7334425244894</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>33.95697128248889</v>
+        <v>2.994905554846675</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.95697128248889</v>
+        <v>35.53947915390413</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.95697128248889</v>
+        <v>43.02229124925632</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.95697128248889</v>
+        <v>10.65050605543147</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.95697128248889</v>
+        <v>32.09143843858065</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.95697128248889</v>
+        <v>38.03733210130802</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33.95697128248889</v>
+        <v>24.49759407320355</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.95697128248889</v>
+        <v>42.28525835124467</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>33.95697128248889</v>
+        <v>47.57338540410908</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.95697128248889</v>
+        <v>50.02440924665175</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>33.95697128248889</v>
+        <v>56.89258527913066</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.95697128248889</v>
+        <v>62.19943364260141</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>33.95697128248889</v>
+        <v>22.80805900445203</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.95697128248889</v>
+        <v>51.46964982105587</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>33.95697128248889</v>
+        <v>58.91512791555201</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>33.95697128248889</v>
+        <v>17.02460492019518</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.95697128248889</v>
+        <v>49.57208497410475</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.95697128248889</v>
+        <v>57.05459582058857</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.95697128248889</v>
+        <v>24.6880144574561</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.95697128248889</v>
+        <v>46.13232103683161</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33.95697128248889</v>
+        <v>52.07766739568635</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>33.95697128248889</v>
+        <v>38.53879770138006</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>33.95697128248889</v>
+        <v>56.32910136671158</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>33.95697128248889</v>
+        <v>61.61701420316215</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>33.95697128248889</v>
+        <v>64.07604828634678</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.95697128248889</v>
+        <v>70.94495257908486</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>33.95697128248889</v>
+        <v>76.25232467641555</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>33.95697128248889</v>
+        <v>36.85484747751932</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33.95697128248889</v>
+        <v>65.52025371102408</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>33.95697128248889</v>
+        <v>72.96576475516426</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>33.95697128248889</v>
+        <v>-0.931986313671608</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33.95697128248889</v>
+        <v>31.60769591616438</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.95697128248889</v>
+        <v>39.08622760409956</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>33.95697128248889</v>
+        <v>6.729664313933178</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.95697128248889</v>
+        <v>28.16639917945324</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>33.95697128248889</v>
+        <v>34.10792577149162</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>33.95697128248889</v>
+        <v>20.57043590462749</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.95697128248889</v>
+        <v>38.35366604771693</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33.95697128248889</v>
+        <v>43.6380553348715</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>33.95697128248889</v>
+        <v>46.09212095650648</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.95697128248889</v>
+        <v>52.95834058568082</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.95697128248889</v>
+        <v>58.26262857839013</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>33.95697128248889</v>
+        <v>18.87674169687146</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>33.95697128248889</v>
+        <v>47.53007184170722</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.95697128248889</v>
+        <v>54.97306459129093</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>33.95697128248889</v>
+        <v>3.238223841202263</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.95697128248889</v>
+        <v>35.78266310547028</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>33.95697128248889</v>
+        <v>43.26538475531513</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>33.95697128248889</v>
+        <v>10.89343075391933</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.95697128248889</v>
+        <v>32.33414671288708</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>33.95697128248889</v>
+        <v>38.27996128270772</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>33.95697128248889</v>
+        <v>24.74060081099081</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>33.95697128248889</v>
+        <v>42.52805895092909</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>33.95697128248889</v>
+        <v>47.81611097787206</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>33.95697128248889</v>
+        <v>50.26734366693186</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>33.95697128248889</v>
+        <v>57.13534599939417</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>33.95697128248889</v>
+        <v>62.44217024968314</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>33.95697128248889</v>
+        <v>23.05103942357093</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>33.95697128248889</v>
+        <v>51.71239483758834</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>33.95697128248889</v>
+        <v>59.15773857976647</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>33.95697128248889</v>
+        <v>17.26807624015985</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.95697128248889</v>
+        <v>49.81542199088174</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>33.95697128248889</v>
+        <v>57.29784239735054</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>33.95697128248889</v>
+        <v>24.93109219074504</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.95697128248889</v>
+        <v>46.37518238366952</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.95697128248889</v>
+        <v>52.32044965364637</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>33.95697128248889</v>
+        <v>38.78195750250402</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>33.95697128248889</v>
+        <v>56.57205505667125</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>33.95697128248889</v>
+        <v>61.85989287094092</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>33.95697128248889</v>
+        <v>64.3191357940195</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>33.95697128248889</v>
+        <v>71.18786641491428</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>33.95697128248889</v>
+        <v>76.49521440643568</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.95697128248889</v>
+        <v>37.09798095931522</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>33.95697128248889</v>
+        <v>65.763151848354</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>33.95697128248889</v>
+        <v>73.20852854929055</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>33.95697128248889</v>
+        <v>-7.39312441285724</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>33.95697128248889</v>
+        <v>25.14539758505712</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>33.95697128248889</v>
+        <v>32.6247092458884</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>33.95697128248889</v>
+        <v>0.267071473843977</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>33.95697128248889</v>
+        <v>21.70242507845771</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>33.95697128248889</v>
+        <v>27.64478105326223</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>33.95697128248889</v>
+        <v>14.10729415186311</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>33.95697128248889</v>
+        <v>31.88926283048804</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.95697128248889</v>
+        <v>37.17430952826587</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>33.95697128248889</v>
+        <v>39.62826012706908</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>33.95697128248889</v>
+        <v>46.49372137727253</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>33.95697128248889</v>
+        <v>51.79915849932988</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>33.95697128248889</v>
+        <v>12.41500903604047</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>33.95697128248889</v>
+        <v>41.06658632694903</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>33.95697128248889</v>
+        <v>48.5103933971536</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>33.95697128248889</v>
+        <v>-3.219705615401175</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>33.95697128248889</v>
+        <v>29.32357352737811</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.95697128248889</v>
+        <v>36.80707527953926</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>33.95697128248889</v>
+        <v>4.434046877213724</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>33.95697128248889</v>
+        <v>25.87338168241363</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.95697128248889</v>
+        <v>31.82002575511249</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>33.95697128248889</v>
+        <v>18.28066787026851</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>33.95697128248889</v>
+        <v>36.06686470553527</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>33.95697128248889</v>
+        <v>41.35557424791521</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.95697128248889</v>
+        <v>43.806691616385</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.95697128248889</v>
+        <v>50.67393571945852</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>33.95697128248889</v>
+        <v>55.98190925834863</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>33.95697128248889</v>
+        <v>16.59251513357501</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>33.95697128248889</v>
+        <v>45.25211796501751</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.95697128248889</v>
+        <v>52.6982760391172</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.95697128248889</v>
+        <v>10.80932890575648</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.95697128248889</v>
+        <v>43.35551441112123</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>33.95697128248889</v>
+        <v>50.83871494777029</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.95697128248889</v>
+        <v>18.4708903279055</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.95697128248889</v>
+        <v>39.91359922299453</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>33.95697128248889</v>
+        <v>45.85969599161533</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>33.95697128248889</v>
+        <v>32.32120670647337</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>33.95697128248889</v>
+        <v>50.11004276469667</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>33.95697128248889</v>
+        <v>55.39853813962916</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>33.95697128248889</v>
+        <v>57.8576660470537</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>33.95697128248889</v>
+        <v>64.7256383423107</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>33.95697128248889</v>
+        <v>70.03413567989512</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>33.95697128248889</v>
+        <v>30.63863896901919</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>33.95697128248889</v>
+        <v>59.30205707673574</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>33.95697128248889</v>
+        <v>66.74824812600875</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>33.95697128248889</v>
+        <v>2.389296041810077</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>33.95697128248889</v>
+        <v>34.9290013615183</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>33.95697128248889</v>
+        <v>42.40821239061913</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.95697128248889</v>
+        <v>10.05071837696162</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>33.95697128248889</v>
+        <v>31.48729089816513</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>33.95697128248889</v>
+        <v>37.4295324504619</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>33.95697128248889</v>
+        <v>23.89173169294597</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.95697128248889</v>
+        <v>41.67479237982591</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.95697128248889</v>
+        <v>46.95975110846846</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>33.95697128248889</v>
+        <v>49.41359688761438</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>33.95697128248889</v>
+        <v>56.27942151804334</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>33.95697128248889</v>
+        <v>61.58474982670484</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>33.95697128248889</v>
+        <v>22.19891706149426</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.95697128248889</v>
+        <v>50.85172067704091</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.95697128248889</v>
+        <v>58.29543305023933</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33.95697128248889</v>
+        <v>6.563769557160505</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>33.95697128248889</v>
+        <v>39.1082320775955</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>33.95697128248889</v>
+        <v>46.59163308842674</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>33.95697128248889</v>
+        <v>14.21874850673519</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.95697128248889</v>
+        <v>35.65930229030139</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.95697128248889</v>
+        <v>41.60583182209732</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>33.95697128248889</v>
+        <v>28.06616024983393</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>33.95697128248889</v>
+        <v>45.85344914735172</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33.95697128248889</v>
+        <v>51.14207059984776</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33.95697128248889</v>
+        <v>53.59308323072819</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>33.95697128248889</v>
+        <v>60.46069071640168</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>33.95697128248889</v>
+        <v>65.76855539894379</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>33.95697128248889</v>
+        <v>26.37747816101703</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.95697128248889</v>
+        <v>55.03830740051738</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>33.95697128248889</v>
+        <v>62.48437067744621</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>33.95697128248889</v>
+        <v>20.59164115656674</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>33.95697128248889</v>
+        <v>53.13900999028144</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.95697128248889</v>
+        <v>60.62210980518214</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>33.95697128248889</v>
+        <v>28.25442908089165</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>33.95697128248889</v>
+        <v>49.69835690265629</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>33.95697128248889</v>
+        <v>55.64433914878575</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>33.95697128248889</v>
+        <v>42.10553612036276</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.95697128248889</v>
+        <v>59.89546419159192</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>33.95697128248889</v>
+        <v>65.18387149678355</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.95697128248889</v>
+        <v>67.64289474544191</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.95697128248889</v>
+        <v>74.51123042605261</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>33.95697128248889</v>
+        <v>79.81961890592672</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.95697128248889</v>
+        <v>40.42243911044373</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.95697128248889</v>
+        <v>69.08708361868977</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>33.95697128248889</v>
+        <v>76.53317989302897</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>33.95697128248889</v>
+        <v>4.278378506142396</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>33.95697128248889</v>
+        <v>36.81633305595367</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>33.95697128248889</v>
+        <v>44.29413285536609</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>33.95697128248889</v>
+        <v>11.9398464563453</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>33.95697128248889</v>
+        <v>33.37582035161379</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.95697128248889</v>
+        <v>39.31673474513625</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>33.95697128248889</v>
+        <v>25.78027433116231</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>33.95697128248889</v>
+        <v>43.56287683396076</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>33.95697128248889</v>
+        <v>48.84672171556279</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>33.95697128248889</v>
+        <v>51.30048339810649</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.95697128248889</v>
+        <v>58.16637830282693</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>33.95697128248889</v>
+        <v>63.47038658950951</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>33.95697128248889</v>
+        <v>24.08662537703842</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>33.95697128248889</v>
+        <v>52.7383930072974</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>33.95697128248889</v>
+        <v>60.18070599377254</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>33.95697128248889</v>
+        <v>8.452713046551345</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>33.95697128248889</v>
+        <v>40.99542438919489</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>33.95697128248889</v>
+        <v>48.47741369707158</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>33.95697128248889</v>
+        <v>16.10773788038157</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.95697128248889</v>
+        <v>37.54769270447057</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>33.95697128248889</v>
+        <v>43.49289460777275</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.95697128248889</v>
+        <v>29.95456389936451</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>33.95697128248889</v>
+        <v>47.74139422909341</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.95697128248889</v>
+        <v>53.0289014007403</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>33.95697128248889</v>
+        <v>55.47983031401871</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>33.95697128248889</v>
+        <v>62.34750792152679</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>33.95697128248889</v>
+        <v>67.65405227881385</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>33.95697128248889</v>
+        <v>28.26504741430629</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>33.95697128248889</v>
+        <v>56.92483997022155</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>33.95697128248889</v>
+        <v>64.36950361448325</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>33.95697128248889</v>
+        <v>22.4801048524474</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>33.95697128248889</v>
+        <v>55.02572230597762</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>33.95697128248889</v>
+        <v>62.50741036657823</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>33.95697128248889</v>
+        <v>30.14293784638355</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>33.95697128248889</v>
+        <v>51.58626646379387</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.95697128248889</v>
+        <v>57.53092105935239</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>33.95697128248889</v>
+        <v>43.99345881190468</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>33.95697128248889</v>
+        <v>61.78292817952477</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.95697128248889</v>
+        <v>67.07022114404614</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>33.95697128248889</v>
+        <v>69.52915976568315</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>33.95697128248889</v>
+        <v>76.39756550281513</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.95697128248889</v>
+        <v>81.70463348938924</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>33.95697128248889</v>
+        <v>42.30952671918917</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>33.95697128248889</v>
+        <v>70.97313429751202</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>33.95697128248889</v>
+        <v>78.41783086525331</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>33.95697128248889</v>
+        <v>-9.127282657825639</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>33.95697128248889</v>
+        <v>23.40898595710585</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>33.95697128248889</v>
+        <v>30.88752807656235</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>33.95697128248889</v>
+        <v>-1.467299224445263</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.95697128248889</v>
+        <v>19.96672160252476</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>33.95697128248889</v>
+        <v>25.90844697932514</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>33.95697128248889</v>
+        <v>12.37197058449974</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>33.95697128248889</v>
+        <v>30.15278786849522</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>33.95697128248889</v>
+        <v>35.43735583043574</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>33.95697128248889</v>
+        <v>37.89133572689364</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.95697128248889</v>
+        <v>44.75651625375006</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.95697128248889</v>
+        <v>50.06082647765991</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>33.95697128248889</v>
+        <v>10.67933065417512</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.95697128248889</v>
+        <v>39.32927594517967</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>33.95697128248889</v>
+        <v>46.77230823640773</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>33.95697128248889</v>
+        <v>-4.950072188656939</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>33.95697128248889</v>
+        <v>27.59095343360386</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>33.95697128248889</v>
+        <v>35.0736854111344</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>33.95697128248889</v>
+        <v>2.703468598672295</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.95697128248889</v>
+        <v>24.14147053885561</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>33.95697128248889</v>
+        <v>30.08748380544623</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>33.95697128248889</v>
+        <v>16.54913660727332</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>33.95697128248889</v>
+        <v>34.33418191873555</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>33.95697128248889</v>
+        <v>39.62241253622867</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>33.95697128248889</v>
+        <v>42.07355918821029</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>33.95697128248889</v>
+        <v>48.94052245299734</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>33.95697128248889</v>
+        <v>54.24736885414061</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>33.95697128248889</v>
+        <v>14.86062862776974</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>33.95697128248889</v>
+        <v>43.51859907611331</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>33.95697128248889</v>
+        <v>50.963982296367</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>33.95697128248889</v>
+        <v>9.078857023725142</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>33.95697128248889</v>
+        <v>41.62278897082033</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.95697128248889</v>
+        <v>49.10521967539442</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>33.95697128248889</v>
+        <v>16.74020622073656</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>33.95697128248889</v>
+        <v>38.18158218916913</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.95697128248889</v>
+        <v>44.12704813858088</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>33.95697128248889</v>
+        <v>30.5895693305117</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>33.95697128248889</v>
+        <v>48.37725387902262</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>33.95697128248889</v>
+        <v>53.66527027945492</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>33.95697128248889</v>
+        <v>56.12442659875146</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>33.95697128248889</v>
+        <v>62.99211807410379</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>33.95697128248889</v>
+        <v>68.29948819027763</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>33.95697128248889</v>
+        <v>28.90664577248558</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>33.95697128248889</v>
+        <v>57.56843144075365</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>33.95697128248889</v>
+        <v>65.01384760530865</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>33.95697128248889</v>
+        <v>-11.19476932788896</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>33.95697128248889</v>
+        <v>21.34435953978684</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.95697128248889</v>
+        <v>28.82368981902184</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>33.95697128248889</v>
+        <v>-3.534122568602946</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>33.95697128248889</v>
+        <v>17.90185247615612</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>33.95697128248889</v>
+        <v>23.84419154372652</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>33.95697128248889</v>
+        <v>10.30612061931081</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.95697128248889</v>
+        <v>28.08861952500749</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>33.95697128248889</v>
+        <v>33.37368634302877</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.95697128248889</v>
+        <v>35.82789140409748</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>33.95697128248889</v>
+        <v>42.69362066101323</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>33.95697128248889</v>
+        <v>47.99904385314787</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.95697128248889</v>
+        <v>8.613791698682782</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.95697128248889</v>
+        <v>37.26606433913694</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>33.95697128248889</v>
+        <v>44.70985385974266</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>33.95697128248889</v>
+        <v>-7.022944450854219</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>33.95697128248889</v>
+        <v>25.52094158120585</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>33.95697128248889</v>
+        <v>33.00446189650913</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>33.95697128248889</v>
+        <v>0.6312587893519108</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>33.95697128248889</v>
+        <v>22.07121505076564</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.95697128248889</v>
+        <v>28.01784215067958</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>33.95697128248889</v>
+        <v>14.47790031243446</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>33.95697128248889</v>
+        <v>32.26462739043289</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>33.95697128248889</v>
+        <v>37.55335699174086</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.95697128248889</v>
+        <v>40.00472897441657</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>33.95697128248889</v>
+        <v>46.87224107516202</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>33.95697128248889</v>
+        <v>52.18020067747828</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>33.95697128248889</v>
+        <v>12.78970402610967</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33.95697128248889</v>
+        <v>41.45000223241377</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>33.95697128248889</v>
+        <v>48.89614271359958</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>33.95697128248889</v>
+        <v>7.005817877953952</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.95697128248889</v>
+        <v>39.55261027213542</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>33.95697128248889</v>
+        <v>47.03582942097203</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.95697128248889</v>
+        <v>14.66783011314144</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.95697128248889</v>
+        <v>36.11116047155381</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.95697128248889</v>
+        <v>42.0572403185872</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>33.95697128248889</v>
+        <v>28.51816698817911</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>33.95697128248889</v>
+        <v>46.30753329659601</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>33.95697128248889</v>
+        <v>51.59604877454579</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>33.95697128248889</v>
+        <v>54.05543124197036</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>33.95697128248889</v>
+        <v>60.9236715591853</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>33.95697128248889</v>
+        <v>66.23215498640704</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>33.95697128248889</v>
+        <v>26.83555568548125</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>33.95697128248889</v>
+        <v>55.49966920008533</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>33.95697128248889</v>
+        <v>62.94584269826928</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>33.95697128248889</v>
+        <v>5.652460324513733</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>33.95697128248889</v>
+        <v>38.19189132355164</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>33.95697128248889</v>
+        <v>45.67010496112923</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>33.95697128248889</v>
+        <v>13.31542592081755</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>33.95697128248889</v>
+        <v>34.75246659403852</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>33.95697128248889</v>
+        <v>40.69375140867667</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>33.95697128248889</v>
+        <v>27.1562032056497</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>33.95697128248889</v>
+        <v>44.93964393149233</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>33.95697128248889</v>
+        <v>50.22385302800942</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.95697128248889</v>
+        <v>52.67789505686708</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>33.95697128248889</v>
+        <v>59.54409376327997</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>33.95697128248889</v>
+        <v>64.84816806644855</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.95697128248889</v>
+        <v>25.46301401437731</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>33.95697128248889</v>
+        <v>54.11619843089611</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.95697128248889</v>
+        <v>61.55898149891014</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>33.95697128248889</v>
+        <v>9.820403310466737</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>33.95697128248889</v>
+        <v>42.36459119942842</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.95697128248889</v>
+        <v>49.84699448729382</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>33.95697128248889</v>
+        <v>17.47692524095508</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>33.95697128248889</v>
+        <v>38.91794693174823</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>33.95697128248889</v>
+        <v>44.86351939199174</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>33.95697128248889</v>
+        <v>31.32410054223906</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.95697128248889</v>
+        <v>49.11176919294108</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>33.95697128248889</v>
+        <v>54.39964068775382</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.95697128248889</v>
+        <v>56.85085002155913</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>33.95697128248889</v>
+        <v>63.71883141618989</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>33.95697128248889</v>
+        <v>69.02544187003943</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>33.95697128248889</v>
+        <v>29.63504414788472</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>33.95697128248889</v>
+        <v>58.29625368281868</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>33.95697128248889</v>
+        <v>65.74138744009949</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>33.95697128248889</v>
+        <v>23.84848395039874</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>33.95697128248889</v>
+        <v>56.39557809178834</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>33.95697128248889</v>
+        <v>63.87768014353808</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>33.95697128248889</v>
+        <v>31.51281460543974</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.95697128248889</v>
+        <v>52.95721024572695</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>33.95697128248889</v>
+        <v>58.90223542301155</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>33.95697128248889</v>
+        <v>45.36368492556105</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>33.95697128248889</v>
+        <v>63.15399273772855</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>33.95697128248889</v>
+        <v>68.44165005284944</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>33.95697128248889</v>
+        <v>70.90086931883124</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.95697128248889</v>
+        <v>77.76957891953234</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>33.95697128248889</v>
+        <v>83.07671304979985</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.95697128248889</v>
+        <v>43.68021313466134</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.95697128248889</v>
+        <v>72.34523787068562</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>33.95697128248889</v>
+        <v>79.79040458025415</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>33.95697128248889</v>
+        <v>-15.56252649848445</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>33.95697128248889</v>
+        <v>16.97311489662591</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>33.95697128248889</v>
+        <v>24.45197913718378</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>33.95697128248889</v>
+        <v>-7.903093471368514</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>33.95697128248889</v>
+        <v>13.5303202525665</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>33.95697128248889</v>
+        <v>19.47236150128922</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>33.95697128248889</v>
+        <v>5.935576014294362</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>33.95697128248889</v>
+        <v>23.71598985009835</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.95697128248889</v>
+        <v>29.00080132778405</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>33.95697128248889</v>
+        <v>31.45407653909556</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>33.95697128248889</v>
+        <v>38.31934973100793</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>33.95697128248889</v>
+        <v>43.62391585597218</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.95697128248889</v>
+        <v>4.24233939876067</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>33.95697128248889</v>
+        <v>32.89184715138399</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.95697128248889</v>
+        <v>40.33520433095689</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>33.95697128248889</v>
+        <v>-11.39032473612885</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>33.95697128248889</v>
+        <v>21.15007335602443</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.95697128248889</v>
+        <v>28.63312765821636</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.95697128248889</v>
+        <v>-3.737334597511925</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>33.95697128248889</v>
+        <v>17.70005991302478</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.95697128248889</v>
+        <v>23.64638925973961</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.95697128248889</v>
+        <v>10.10773294237581</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>33.95697128248889</v>
+        <v>27.89237448107244</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.95697128248889</v>
+        <v>33.18084886006543</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>33.95697128248889</v>
+        <v>35.63129094236908</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.95697128248889</v>
+        <v>42.49834681078139</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>33.95697128248889</v>
+        <v>47.80544914910408</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>33.95697128248889</v>
+        <v>8.418628567911789</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>33.95697128248889</v>
+        <v>37.07616107244369</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>33.95697128248889</v>
+        <v>44.52186944962612</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>33.95697128248889</v>
+        <v>2.638910166529719</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.95697128248889</v>
+        <v>35.18221458764194</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>33.95697128248889</v>
+        <v>42.66496768282352</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33.95697128248889</v>
+        <v>10.29970886368788</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.95697128248889</v>
+        <v>31.74047742295839</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>33.95697128248889</v>
+        <v>37.6862595189509</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>33.95697128248889</v>
+        <v>24.1484714399928</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>33.95697128248889</v>
+        <v>41.93575225620291</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.95697128248889</v>
+        <v>47.22401245127819</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>33.95697128248889</v>
+        <v>49.68246423494472</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>33.95697128248889</v>
+        <v>56.55024831909825</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>33.95697128248889</v>
+        <v>61.8578744953031</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>33.95697128248889</v>
+        <v>22.46495162246104</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>33.95697128248889</v>
+        <v>51.12629935155631</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>33.95697128248889</v>
+        <v>58.57204073637283</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>33.95697128248889</v>
+        <v>-2.827293034730154</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>33.95697128248889</v>
+        <v>29.71097719486634</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>33.95697128248889</v>
+        <v>37.18919387960384</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>33.95697128248889</v>
+        <v>4.833251114639758</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.95697128248889</v>
+        <v>26.26894415307718</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>33.95697128248889</v>
+        <v>32.21019453654728</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>33.95697128248889</v>
+        <v>18.67351865601345</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>33.95697128248889</v>
+        <v>36.45591985728638</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>33.95697128248889</v>
+        <v>41.74003467396549</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.95697128248889</v>
+        <v>44.19390990454495</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.95697128248889</v>
+        <v>51.05984500442955</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>33.95697128248889</v>
+        <v>56.36402888352709</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.95697128248889</v>
+        <v>16.9796348714825</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.95697128248889</v>
+        <v>45.63163941895014</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>33.95697128248889</v>
+        <v>53.07426832714734</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>33.95697128248889</v>
+        <v>1.346306476749625</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.95697128248889</v>
+        <v>33.88933359385019</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.95697128248889</v>
+        <v>41.37174011828368</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>33.95697128248889</v>
+        <v>9.000407314792689</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>33.95697128248889</v>
+        <v>30.44008131031817</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>33.95697128248889</v>
+        <v>36.38561954945246</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>33.95697128248889</v>
+        <v>22.84707331308082</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>33.95697128248889</v>
+        <v>40.6337023632078</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>33.95697128248889</v>
+        <v>45.92147983069683</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.95697128248889</v>
+        <v>48.37252214103726</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>33.95697128248889</v>
+        <v>55.24023990840622</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>33.95697128248889</v>
+        <v>60.54695997583142</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>33.95697128248889</v>
+        <v>21.15732211277052</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.95697128248889</v>
+        <v>49.8173516554841</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>33.95697128248889</v>
+        <v>57.26233152775328</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>33.95697128248889</v>
+        <v>15.37587005233738</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>33.95697128248889</v>
+        <v>47.92180355902222</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>33.95697128248889</v>
+        <v>55.40390884626434</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>33.95697128248889</v>
+        <v>23.03777953108622</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>33.95697128248889</v>
+        <v>44.48082765342404</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>33.95697128248889</v>
+        <v>50.42581859730397</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.95697128248889</v>
+        <v>36.88814070394469</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>33.95697128248889</v>
+        <v>54.67740908961705</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>33.95697128248889</v>
+        <v>59.96497233616933</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>33.95697128248889</v>
+        <v>62.42402462730988</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>33.95697128248889</v>
+        <v>69.2924706451839</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>33.95697128248889</v>
+        <v>74.59971443104413</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>33.95697128248889</v>
+        <v>35.20397415050125</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>33.95697128248889</v>
+        <v>63.8678190415362</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>33.95697128248889</v>
+        <v>71.31283186026198</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>33.95697128248889</v>
+        <v>-15.86791292135015</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>33.95697128248889</v>
+        <v>16.66898196572081</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>33.95697128248889</v>
+        <v>24.14750107467442</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>33.95697128248889</v>
+        <v>-8.208757057118326</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>33.95697128248889</v>
+        <v>13.22547040624577</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>33.95697128248889</v>
+        <v>19.16705428909606</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>33.95697128248889</v>
+        <v>5.630542486118294</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.95697128248889</v>
+        <v>23.41160443493605</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>33.95697128248889</v>
+        <v>28.69601745318116</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.95697128248889</v>
+        <v>31.1499524050698</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.95697128248889</v>
+        <v>38.01546562975907</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>33.95697128248889</v>
+        <v>43.31971719363603</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.95697128248889</v>
+        <v>3.937284944183467</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>33.95697128248889</v>
+        <v>32.58772792987711</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>33.95697128248889</v>
+        <v>40.03064977791971</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>33.95697128248889</v>
+        <v>-11.69900740599214</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>33.95697128248889</v>
+        <v>20.84264422759006</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>33.95697128248889</v>
+        <v>28.32535334253587</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>33.95697128248889</v>
+        <v>-4.046295045934265</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>33.95697128248889</v>
+        <v>17.39191322262977</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>33.95697128248889</v>
+        <v>23.33778514703656</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>33.95697128248889</v>
+        <v>9.799402637273921</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>33.95697128248889</v>
+        <v>27.58469230705621</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.95697128248889</v>
+        <v>32.87276814496747</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>33.95697128248889</v>
+        <v>35.32387029385084</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>33.95697128248889</v>
+        <v>42.19116614736115</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.95697128248889</v>
+        <v>47.49795396160673</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>33.95697128248889</v>
+        <v>8.110277849059209</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.95697128248889</v>
+        <v>36.76874570996367</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.95697128248889</v>
+        <v>44.2140186340391</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>33.95697128248889</v>
+        <v>2.332545486351911</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>33.95697128248889</v>
+        <v>34.87710362006496</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>33.95697128248889</v>
+        <v>42.35951144593876</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>33.95697128248889</v>
+        <v>9.993066590388118</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>33.95697128248889</v>
+        <v>31.43464909678674</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>33.95697128248889</v>
+        <v>37.37997367705223</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>33.95697128248889</v>
+        <v>23.84245955637866</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>33.95697128248889</v>
+        <v>41.63038867132887</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>33.95697128248889</v>
+        <v>46.91825024451985</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>33.95697128248889</v>
+        <v>49.3773622503471</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>33.95697128248889</v>
+        <v>56.24538636788598</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>33.95697128248889</v>
+        <v>61.55269790234454</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>33.95697128248889</v>
+        <v>22.15891927282835</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>33.95697128248889</v>
+        <v>50.82120254294839</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>33.95697128248889</v>
+        <v>58.26650836535939</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>33.95697128248889</v>
+        <v>-22.08833944903929</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>33.95697128248889</v>
+        <v>10.44684780716714</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>33.95697128248889</v>
+        <v>17.92493982525387</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>33.95697128248889</v>
+        <v>-14.43026448900914</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>33.95697128248889</v>
+        <v>7.002623471793505</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>33.95697128248889</v>
+        <v>12.94379848983952</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>33.95697128248889</v>
+        <v>-0.5918535165518719</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>33.95697128248889</v>
+        <v>17.18808226100359</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>33.95697128248889</v>
+        <v>22.47209673160544</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>33.95697128248889</v>
+        <v>24.92622789905634</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>33.95697128248889</v>
+        <v>31.79134616496479</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>33.95697128248889</v>
+        <v>37.09544159620234</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>33.95697128248889</v>
+        <v>-2.284883897516941</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>33.95697128248889</v>
+        <v>26.36393248109651</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.95697128248889</v>
+        <v>33.80642507163859</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>33.95697128248889</v>
+        <v>-17.91832042827721</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>33.95697128248889</v>
+        <v>14.62162339517429</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>33.95697128248889</v>
+        <v>22.10390528641549</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>33.95697128248889</v>
+        <v>-10.26668869954712</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>33.95697128248889</v>
+        <v>11.17017990630936</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>33.95697128248889</v>
+        <v>17.11564282620245</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>33.95697128248889</v>
+        <v>3.578120302117306</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>33.95697128248889</v>
+        <v>21.3622836299538</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>33.95697128248889</v>
+        <v>26.64996081867432</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>33.95697128248889</v>
+        <v>29.10125923974883</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.95697128248889</v>
+        <v>35.96816008948563</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>33.95697128248889</v>
+        <v>41.27479169256637</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>33.95697128248889</v>
+        <v>1.88922243252123</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.95697128248889</v>
+        <v>30.54606336275069</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>33.95697128248889</v>
+        <v>37.99090698572306</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.95697128248889</v>
+        <v>-3.887069991806037</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.95697128248889</v>
+        <v>28.65578022416421</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.95697128248889</v>
+        <v>36.13776085452421</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>33.95697128248889</v>
+        <v>3.772370083503326</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.95697128248889</v>
+        <v>25.21261280583347</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>33.95697128248889</v>
+        <v>31.15752841829815</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.95697128248889</v>
+        <v>17.62087430563404</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.95697128248889</v>
+        <v>35.40767698441093</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>33.95697128248889</v>
+        <v>40.69513992447808</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>33.95697128248889</v>
+        <v>43.15444790812783</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>33.95697128248889</v>
+        <v>50.02207697916126</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>33.95697128248889</v>
+        <v>55.32923228447519</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>33.95697128248889</v>
+        <v>15.93756073257598</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.95697128248889</v>
+        <v>44.59821690854231</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>33.95697128248889</v>
+        <v>52.04309344112765</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>33.95697128248889</v>
+        <v>-5.343326998550786</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>33.95697128248889</v>
+        <v>27.19577491856328</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>33.95697128248889</v>
+        <v>34.67522571128141</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>33.95697128248889</v>
+        <v>2.317114369313892</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>33.95697128248889</v>
+        <v>23.75293238478137</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.95697128248889</v>
+        <v>29.69543446718442</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.95697128248889</v>
+        <v>16.157748367925</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>33.95697128248889</v>
+        <v>33.94013597950082</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.95697128248889</v>
+        <v>39.22534145208304</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.95697128248889</v>
+        <v>41.67932150913564</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.95697128248889</v>
+        <v>48.54496185193577</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>33.95697128248889</v>
+        <v>53.85033653613957</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.95697128248889</v>
+        <v>14.4653786740947</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.95697128248889</v>
+        <v>43.11755812115516</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>33.95697128248889</v>
+        <v>50.56151838274739</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>33.95697128248889</v>
+        <v>-1.172368638125725</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.95697128248889</v>
+        <v>31.3714904327861</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>33.95697128248889</v>
+        <v>38.85513134264486</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>33.95697128248889</v>
+        <v>6.48162909012192</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.95697128248889</v>
+        <v>27.92142830403962</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>33.95697128248889</v>
+        <v>33.86821851996203</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.95697128248889</v>
+        <v>20.32866136245818</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>33.95697128248889</v>
+        <v>38.11527713731719</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.95697128248889</v>
+        <v>43.40414547786552</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>33.95697128248889</v>
+        <v>45.85529241024276</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>33.95697128248889</v>
+        <v>52.72271559244516</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>33.95697128248889</v>
+        <v>58.03062665764842</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>33.95697128248889</v>
+        <v>18.64042428876301</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.95697128248889</v>
+        <v>47.30062931828079</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>33.95697128248889</v>
+        <v>54.74694059122837</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.95697128248889</v>
+        <v>12.85711242278135</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>33.95697128248889</v>
+        <v>45.40387792464512</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.95697128248889</v>
+        <v>52.88721762495263</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>33.95697128248889</v>
+        <v>20.51891931399403</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.95697128248889</v>
+        <v>41.96209269988547</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33.95697128248889</v>
+        <v>47.90833561838756</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>33.95697128248889</v>
+        <v>34.36964698520806</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.95697128248889</v>
+        <v>52.15890205507421</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>33.95697128248889</v>
+        <v>57.44755623697959</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>33.95697128248889</v>
+        <v>59.90671374927181</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>33.95697128248889</v>
+        <v>66.77486515809707</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>33.95697128248889</v>
+        <v>72.08330006591015</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.95697128248889</v>
+        <v>32.68699495893541</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>33.95697128248889</v>
+        <v>61.35101536273155</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.95697128248889</v>
+        <v>68.79735962231834</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>33.95697128248889</v>
+        <v>-4.039067398135579</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.95697128248889</v>
+        <v>28.49883113164717</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.95697128248889</v>
+        <v>35.97744559441455</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>33.95697128248889</v>
+        <v>3.621915575031586</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.95697128248889</v>
+        <v>25.05725153490651</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>33.95697128248889</v>
+        <v>30.99892254228937</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>33.95697128248889</v>
+        <v>17.46175367484111</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>33.95697128248889</v>
+        <v>35.24385767000545</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>33.95697128248889</v>
+        <v>40.52836003529726</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>33.95697128248889</v>
+        <v>42.98189714106181</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>33.95697128248889</v>
+        <v>49.84780917433861</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.95697128248889</v>
+        <v>55.15210228686212</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>33.95697128248889</v>
+        <v>15.76799051039868</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>33.95697128248889</v>
+        <v>44.41974970970862</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>33.95697128248889</v>
+        <v>51.86285361134899</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>33.95697128248889</v>
+        <v>0.1281927511048266</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.95697128248889</v>
+        <v>32.67084803551629</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.95697128248889</v>
+        <v>40.15365248323472</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>33.95697128248889</v>
+        <v>7.782732179233996</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.95697128248889</v>
+        <v>29.22204896622291</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>33.95697128248889</v>
+        <v>35.16800798137476</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.95697128248889</v>
+        <v>21.62896836654179</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.95697128248889</v>
+        <v>39.41530010755694</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.95697128248889</v>
+        <v>44.70346527267041</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.95697128248889</v>
+        <v>47.15416952794735</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>33.95697128248889</v>
+        <v>54.02186423732528</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>33.95697128248889</v>
+        <v>59.32869356741671</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>33.95697128248889</v>
+        <v>19.93933797788359</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.95697128248889</v>
+        <v>48.59912207762464</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>33.95697128248889</v>
+        <v>56.04457706468222</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>33.95697128248889</v>
+        <v>14.15750409269649</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>33.95697128248889</v>
+        <v>46.70306577480856</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>33.95697128248889</v>
+        <v>54.18556899773078</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.95697128248889</v>
+        <v>21.81985231166252</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>33.95697128248889</v>
+        <v>43.26254323696705</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.95697128248889</v>
+        <v>49.2079549797372</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>33.95697128248889</v>
+        <v>35.66978362504322</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>33.95697128248889</v>
+        <v>53.45875471196039</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>33.95697128248889</v>
+        <v>58.74670566867096</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>33.95697128248889</v>
+        <v>61.20541993741447</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>33.95697128248889</v>
+        <v>68.07384290736977</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>33.95697128248889</v>
+        <v>73.38119600747925</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>33.95697128248889</v>
+        <v>33.9857379673791</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.95697128248889</v>
+        <v>62.64933739049966</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>33.95697128248889</v>
+        <v>70.0948253430349</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.95697128248889</v>
+        <v>2.484264686544385</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.95697128248889</v>
+        <v>35.02520827891258</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>33.95697128248889</v>
+        <v>42.50463202181752</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>33.95697128248889</v>
+        <v>10.1466554937783</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>33.95697128248889</v>
+        <v>31.58423370262128</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>33.95697128248889</v>
+        <v>37.52664706353992</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>33.95697128248889</v>
+        <v>23.9879676533378</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>33.95697128248889</v>
+        <v>41.77185122638659</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>33.95697128248889</v>
+        <v>47.05700022222957</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.95697128248889</v>
+        <v>49.51093034729386</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>33.95697128248889</v>
+        <v>56.37712426904987</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>33.95697128248889</v>
+        <v>61.68249912037013</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.95697128248889</v>
+        <v>22.29528075414587</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>33.95697128248889</v>
+        <v>50.94940805043175</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>33.95697128248889</v>
+        <v>58.3933840472715</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>33.95697128248889</v>
+        <v>6.655591258736742</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.95697128248889</v>
+        <v>39.20129215422785</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>33.95697128248889</v>
+        <v>46.68490598599372</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>33.95697128248889</v>
+        <v>14.31153831935601</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>33.95697128248889</v>
+        <v>35.75309789089281</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.95697128248889</v>
+        <v>41.69979933521379</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>33.95697128248889</v>
+        <v>28.15924890989832</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.95697128248889</v>
+        <v>45.9473608013785</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>33.95697128248889</v>
+        <v>51.23617259965861</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.95697128248889</v>
+        <v>53.6872695760537</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.95697128248889</v>
+        <v>60.55524640488031</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.95697128248889</v>
+        <v>65.86315770269036</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>33.95697128248889</v>
+        <v>26.4706947704743</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>33.95697128248889</v>
+        <v>55.13284791060719</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>33.95697128248889</v>
+        <v>62.57917485868129</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.95697128248889</v>
+        <v>20.68409304660006</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>33.95697128248889</v>
+        <v>53.23270033254128</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>33.95697128248889</v>
+        <v>60.71601294524451</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>33.95697128248889</v>
+        <v>28.34784937623201</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>33.95697128248889</v>
+        <v>49.79278307240336</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>33.95697128248889</v>
+        <v>55.73893721055877</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>33.95697128248889</v>
+        <v>42.19925532492605</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>33.95697128248889</v>
+        <v>59.99000646053023</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>33.95697128248889</v>
+        <v>65.27860409921581</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>33.95697128248889</v>
+        <v>67.7377118640479</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>33.95697128248889</v>
+        <v>74.60641690932729</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>33.95697128248889</v>
+        <v>79.91485199278461</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>33.95697128248889</v>
+        <v>40.51628637471467</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>33.95697128248889</v>
+        <v>69.18225487422225</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>33.95697128248889</v>
+        <v>76.62861480546925</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>33.95697128248889</v>
+        <v>-0.3556173820336639</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>33.95697128248889</v>
+        <v>32.18326903538557</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.95697128248889</v>
+        <v>39.66263546202297</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>33.95697128248889</v>
+        <v>7.305911257891218</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>33.95697128248889</v>
+        <v>28.74170507052688</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>33.95697128248889</v>
+        <v>34.68415293798191</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>33.95697128248889</v>
+        <v>21.14617138091976</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>33.95697128248889</v>
+        <v>38.92854946945099</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>33.95697128248889</v>
+        <v>44.21369637690439</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>33.95697128248889</v>
+        <v>46.66734458975893</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>33.95697128248889</v>
+        <v>53.53283098404345</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>33.95697128248889</v>
+        <v>58.83828866842553</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.95697128248889</v>
+        <v>19.45343668074984</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.95697128248889</v>
+        <v>48.10538147211728</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>33.95697128248889</v>
+        <v>55.54929749701316</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>33.95697128248889</v>
+        <v>3.816850286383875</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>33.95697128248889</v>
+        <v>36.36049380267762</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>33.95697128248889</v>
+        <v>43.84405022331973</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>33.95697128248889</v>
+        <v>11.47193562091739</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.95697128248889</v>
+        <v>32.91171059721305</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>33.95697128248889</v>
+        <v>38.85844646583926</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>33.95697128248889</v>
+        <v>25.31859387801317</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.95697128248889</v>
+        <v>43.10520009230343</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>33.95697128248889</v>
+        <v>48.39400974136672</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.95697128248889</v>
+        <v>50.84482477655886</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.95697128248889</v>
+        <v>57.71209400489838</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>33.95697128248889</v>
+        <v>63.0200880617168</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>33.95697128248889</v>
+        <v>23.62999161103344</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>33.95697128248889</v>
+        <v>52.28996188949564</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>33.95697128248889</v>
+        <v>59.73622881525964</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>33.95697128248889</v>
+        <v>17.84486462948198</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>33.95697128248889</v>
+        <v>50.39141442877563</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>33.95697128248889</v>
+        <v>57.87466964539235</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>33.95697128248889</v>
+        <v>25.50775896157914</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>33.95697128248889</v>
+        <v>46.95090794290511</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>33.95697128248889</v>
+        <v>52.89709651597966</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>33.95697128248889</v>
+        <v>39.35811248334787</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>33.95697128248889</v>
+        <v>57.1473578364531</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>33.95697128248889</v>
+        <v>62.43595333090602</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>33.95697128248889</v>
+        <v>64.89477896777416</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.95697128248889</v>
+        <v>71.76277637514406</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.95697128248889</v>
+        <v>77.07129423237629</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.95697128248889</v>
+        <v>37.67509526358354</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.95697128248889</v>
+        <v>66.33888075637205</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>33.95697128248889</v>
+        <v>73.78518066784156</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>33.95697128248889</v>
+        <v>-2.887766634647186</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>33.95697128248889</v>
+        <v>29.6523548307383</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>33.95697128248889</v>
+        <v>37.1315517933808</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.95697128248889</v>
+        <v>4.774077053402927</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.95697128248889</v>
+        <v>26.2110120094445</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>33.95697128248889</v>
+        <v>32.15320135135105</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>33.95697128248889</v>
+        <v>18.61486885782652</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>33.95697128248889</v>
+        <v>36.39830210929208</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>33.95697128248889</v>
+        <v>41.68326036046776</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>33.95697128248889</v>
+        <v>44.13706363305219</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>33.95697128248889</v>
+        <v>51.00329846637428</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>33.95697128248889</v>
+        <v>56.30820025344108</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.95697128248889</v>
+        <v>16.92129970429708</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>33.95697128248889</v>
+        <v>45.57500867962992</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.95697128248889</v>
+        <v>53.01866917495884</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>33.95697128248889</v>
+        <v>1.280380650506778</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.95697128248889</v>
+        <v>33.82525919038253</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>33.95697128248889</v>
+        <v>41.30864628681091</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.95697128248889</v>
+        <v>8.93578048047366</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>33.95697128248889</v>
+        <v>30.37669656410808</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.95697128248889</v>
+        <v>36.32317405084107</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.95697128248889</v>
+        <v>22.78297065789534</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>33.95697128248889</v>
+        <v>40.5706319648592</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>33.95697128248889</v>
+        <v>45.85925311828849</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>33.95697128248889</v>
+        <v>48.31022333938197</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>33.95697128248889</v>
+        <v>55.17824095632839</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>33.95697128248889</v>
+        <v>60.48567907975823</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>33.95697128248889</v>
+        <v>21.09353440465495</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.95697128248889</v>
+        <v>49.75526879895686</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.95697128248889</v>
+        <v>57.20128039625022</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>33.95697128248889</v>
+        <v>15.30941762284042</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>33.95697128248889</v>
+        <v>47.85720260798698</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>33.95697128248889</v>
+        <v>55.34028851527317</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>33.95697128248889</v>
+        <v>22.97262672800523</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>33.95697128248889</v>
+        <v>44.41691700970248</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.95697128248889</v>
+        <v>50.36284723660558</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>33.95697128248889</v>
+        <v>36.82351218397853</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.95697128248889</v>
+        <v>54.61381284073818</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>33.95697128248889</v>
+        <v>59.90221983132674</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.95697128248889</v>
+        <v>62.36120063961844</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>33.95697128248889</v>
+        <v>69.22994652483814</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.95697128248889</v>
+        <v>74.53790849998549</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>33.95697128248889</v>
+        <v>35.13966110135934</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>33.95697128248889</v>
+        <v>63.80521092581476</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>33.95697128248889</v>
+        <v>71.25125554920689</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>33.95697128248889</v>
+        <v>-9.763131376577824</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.95697128248889</v>
+        <v>22.77398062296832</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.95697128248889</v>
+        <v>30.25306562806302</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>33.95697128248889</v>
+        <v>-2.103477112886161</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>33.95697128248889</v>
+        <v>19.33108106345433</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>33.95697128248889</v>
+        <v>25.27326154283899</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>33.95697128248889</v>
+        <v>11.73617635442711</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>33.95697128248889</v>
+        <v>29.51750192238556</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>33.95697128248889</v>
+        <v>34.80244549250731</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.95697128248889</v>
+        <v>37.25571998354585</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>33.95697128248889</v>
+        <v>44.12098626884163</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.95697128248889</v>
+        <v>49.42609893044776</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>33.95697128248889</v>
+        <v>10.04342450824877</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>33.95697128248889</v>
+        <v>38.69390462439376</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>33.95697128248889</v>
+        <v>46.13759150862118</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>33.95697128248889</v>
+        <v>-5.587090383457642</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>33.95697128248889</v>
+        <v>26.95477867727173</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>33.95697128248889</v>
+        <v>34.43805368781612</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>33.95697128248889</v>
+        <v>2.066121079899609</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.95697128248889</v>
+        <v>23.50466040286413</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>33.95697128248889</v>
+        <v>29.45112891592905</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>33.95697128248889</v>
+        <v>15.91217268745854</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>33.95697128248889</v>
+        <v>33.69772634636147</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>33.95697128248889</v>
+        <v>38.98633270362595</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.95697128248889</v>
+        <v>41.43677403349714</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.95697128248889</v>
+        <v>48.30382310192747</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>33.95697128248889</v>
+        <v>53.61147205507834</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>33.95697128248889</v>
+        <v>14.22355305154404</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.95697128248889</v>
+        <v>42.88205849146991</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>33.95697128248889</v>
+        <v>50.32809641983452</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.95697128248889</v>
+        <v>8.440951076857665</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.95697128248889</v>
+        <v>40.98572643243151</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>33.95697128248889</v>
+        <v>48.46870024201483</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>33.95697128248889</v>
+        <v>16.10197111094656</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>33.95697128248889</v>
+        <v>37.54388445724633</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>33.95697128248889</v>
+        <v>43.48980569918078</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>33.95697128248889</v>
+        <v>29.95171786074352</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>33.95697128248889</v>
+        <v>47.73991070920042</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>33.95697128248889</v>
+        <v>53.02830291118105</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>33.95697128248889</v>
+        <v>55.4867542492909</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>33.95697128248889</v>
+        <v>62.35453151327065</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.95697128248889</v>
+        <v>67.66270430526501</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>33.95697128248889</v>
+        <v>28.26868292084098</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>33.95697128248889</v>
+        <v>56.93100353535724</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>33.95697128248889</v>
+        <v>64.37707448627711</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>33.95697128248889</v>
+        <v>-2.369810587555683</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>33.95697128248889</v>
+        <v>30.16881166080052</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>33.95697128248889</v>
+        <v>37.64825908893543</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>33.95697128248889</v>
+        <v>5.291465839853096</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>33.95697128248889</v>
+        <v>26.72702057682657</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>33.95697128248889</v>
+        <v>32.66955947252175</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>33.95697128248889</v>
+        <v>19.13157805543685</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>33.95697128248889</v>
+        <v>36.91374278850524</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.95697128248889</v>
+        <v>42.19896777363463</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>33.95697128248889</v>
+        <v>44.65260054212113</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>33.95697128248889</v>
+        <v>51.51802223658078</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>33.95697128248889</v>
+        <v>56.82352262551044</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>33.95697128248889</v>
+        <v>17.43897237308224</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>33.95697128248889</v>
+        <v>46.09066249465</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>33.95697128248889</v>
+        <v>53.53465104794029</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>33.95697128248889</v>
+        <v>1.802591749748537</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>33.95697128248889</v>
+        <v>34.3459710909618</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.95697128248889</v>
+        <v>41.82960854663336</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.95697128248889</v>
+        <v>9.457424923878399</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>33.95697128248889</v>
+        <v>30.89696082033161</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>33.95697128248889</v>
+        <v>36.84378775346384</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>33.95697128248889</v>
+        <v>23.30393524029351</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>33.95697128248889</v>
+        <v>41.09032809665982</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>33.95697128248889</v>
+        <v>46.37921585765273</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>33.95697128248889</v>
+        <v>48.83001542697955</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>33.95697128248889</v>
+        <v>55.69721995872462</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>33.95697128248889</v>
+        <v>61.00525673125853</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>33.95697128248889</v>
+        <v>21.61546196454149</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>33.95697128248889</v>
+        <v>50.27517756654263</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>33.95697128248889</v>
+        <v>57.72151705616236</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>33.95697128248889</v>
+        <v>15.8306398733258</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.95697128248889</v>
+        <v>48.37692549912763</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>33.95697128248889</v>
+        <v>55.86026175093591</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>33.95697128248889</v>
+        <v>23.4932820277754</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.95697128248889</v>
+        <v>44.93619192979984</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>33.95697128248889</v>
+        <v>50.88247156824102</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>33.95697128248889</v>
+        <v>37.34348760769772</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>33.95697128248889</v>
+        <v>55.13251960409739</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>33.95697128248889</v>
+        <v>60.42119321151106</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>33.95697128248889</v>
+        <v>62.88000335383501</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>33.95697128248889</v>
+        <v>69.74793606245052</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>33.95697128248889</v>
+        <v>75.05649664473796</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>33.95697128248889</v>
+        <v>35.66059936385543</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>33.95697128248889</v>
+        <v>64.32413017296207</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>33.95697128248889</v>
+        <v>71.77050265284092</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>33.95697128248889</v>
+        <v>1.032583652711402</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>33.95697128248889</v>
+        <v>33.57088891731437</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.95697128248889</v>
+        <v>41.04953091965556</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>33.95697128248889</v>
+        <v>8.6942193443085</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>33.95697128248889</v>
+        <v>30.12983050092223</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>33.95697128248889</v>
+        <v>36.07159696589836</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>33.95697128248889</v>
+        <v>22.53450538846116</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>33.95697128248889</v>
+        <v>40.31672154304395</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>33.95697128248889</v>
+        <v>45.60133037685953</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>33.95697128248889</v>
+        <v>48.05519485537614</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>33.95697128248889</v>
+        <v>54.92056676895752</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>33.95697128248889</v>
+        <v>60.22522266475526</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.95697128248889</v>
+        <v>20.84125010466412</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>33.95697128248889</v>
+        <v>49.49281162592749</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>33.95697128248889</v>
+        <v>56.93610217044043</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>33.95697128248889</v>
+        <v>5.203195033632575</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.95697128248889</v>
+        <v>37.74625721124435</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>33.95697128248889</v>
+        <v>45.22908900488844</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>33.95697128248889</v>
+        <v>12.85838722944775</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.95697128248889</v>
+        <v>34.29797937887972</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>33.95697128248889</v>
+        <v>40.24403366011163</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>33.95697128248889</v>
+        <v>26.70507137466243</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>33.95697128248889</v>
+        <v>44.49151545325581</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>33.95697128248889</v>
+        <v>49.77978685491141</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>33.95697128248889</v>
+        <v>52.23081844171575</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>33.95697128248889</v>
+        <v>59.09797301105957</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>33.95697128248889</v>
+        <v>64.40516510512188</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>33.95697128248889</v>
+        <v>25.01594856148663</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>33.95697128248889</v>
+        <v>53.67553520448505</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>33.95697128248889</v>
+        <v>61.12117651218725</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>33.95697128248889</v>
+        <v>19.23077504853061</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>33.95697128248889</v>
+        <v>51.77674351600397</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>33.95697128248889</v>
+        <v>59.25927406770402</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>33.95697128248889</v>
+        <v>26.89377610044264</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>33.95697128248889</v>
+        <v>48.33674225121261</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>33.95697128248889</v>
+        <v>54.282249224045</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>33.95697128248889</v>
+        <v>40.74415531922987</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>33.95697128248889</v>
+        <v>58.53323857635858</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>33.95697128248889</v>
+        <v>63.82129578423096</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>33.95697128248889</v>
+        <v>66.28033754791292</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>33.95697128248889</v>
+        <v>73.14822032165077</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>33.95697128248889</v>
+        <v>78.45593616015819</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>33.95697128248889</v>
+        <v>39.06061728948644</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>33.95697128248889</v>
+        <v>67.72401916951705</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>33.95697128248889</v>
+        <v>75.16969341640501</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>33.95697128248889</v>
+        <v>-2.126800950799996</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>33.95697128248889</v>
+        <v>30.41325346911194</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>33.95697128248889</v>
+        <v>37.89242452930078</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>33.95697128248889</v>
+        <v>5.535213931328009</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>33.95697128248889</v>
+        <v>26.9721533740038</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>33.95697128248889</v>
+        <v>32.91433157489835</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>33.95697128248889</v>
+        <v>19.37595172234658</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.95697128248889</v>
+        <v>37.15938696205078</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.95697128248889</v>
+        <v>42.44434135257641</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>33.95697128248889</v>
+        <v>44.89810315399857</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>33.95697128248889</v>
+        <v>51.76427739777362</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>33.95697128248889</v>
+        <v>57.06922207893636</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>33.95697128248889</v>
+        <v>17.68238770752507</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>33.95697128248889</v>
+        <v>46.33602619872361</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>33.95697128248889</v>
+        <v>53.77969140903449</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>33.95697128248889</v>
+        <v>2.041350541658836</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.95697128248889</v>
+        <v>34.58616201687753</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.95697128248889</v>
+        <v>42.06952316971999</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.95697128248889</v>
+        <v>9.696921629594478</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>33.95697128248889</v>
+        <v>31.13784218696603</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.95697128248889</v>
+        <v>37.08430849332397</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>33.95697128248889</v>
+        <v>23.54405772203709</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>33.95697128248889</v>
+        <v>41.33172100756142</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>33.95697128248889</v>
+        <v>46.62033825702881</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.95697128248889</v>
+        <v>49.0712670209359</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>33.95697128248889</v>
+        <v>55.93922404016426</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>33.95697128248889</v>
+        <v>61.24670505192635</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>33.95697128248889</v>
+        <v>21.85462657459866</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>33.95697128248889</v>
+        <v>50.51629045134801</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>33.95697128248889</v>
+        <v>57.96230672505383</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>33.95697128248889</v>
+        <v>16.06971609742696</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.95697128248889</v>
+        <v>48.61743395816857</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>33.95697128248889</v>
+        <v>56.10049394276448</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>33.95697128248889</v>
+        <v>23.7330964014835</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>33.95697128248889</v>
+        <v>45.17739109071713</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>33.95697128248889</v>
+        <v>51.12331015623975</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>33.95697128248889</v>
+        <v>37.58392771870931</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>33.95697128248889</v>
+        <v>55.3742302893821</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>33.95697128248889</v>
+        <v>60.66263339759494</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>33.95697128248889</v>
+        <v>63.12157272770228</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>33.95697128248889</v>
+        <v>69.99025799179989</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>33.95697128248889</v>
+        <v>75.29826285406997</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>33.95697128248889</v>
+        <v>35.90008172791406</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>33.95697128248889</v>
+        <v>64.56556095588698</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>33.95697128248889</v>
+        <v>72.01161028306464</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-5.118520014135946</v>
+        <v>-5.118520014115596</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.42072573177311</v>
+        <v>27.42072573177595</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.90029830208002</v>
+        <v>34.90029830208685</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.542372748444201</v>
+        <v>2.542372748411459</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.97837288203116</v>
+        <v>23.97837288203753</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.92099278264684</v>
+        <v>29.92099278266617</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.38287208654081</v>
+        <v>16.38287208655343</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.16538448577305</v>
+        <v>34.16538448578545</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>39.45069586696261</v>
+        <v>39.4506958669492</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41.90452572927823</v>
+        <v>41.90452572926004</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>48.77016386730563</v>
+        <v>48.77016386730472</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>54.075708722283</v>
+        <v>54.07570872230392</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.69046835248808</v>
+        <v>14.69046835247261</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>43.34279780654081</v>
+        <v>43.34279780655536</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50.78691146457957</v>
+        <v>50.78691146452682</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.9439381807968843</v>
+        <v>-0.9439381807510685</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.60006485018548</v>
+        <v>31.60006485020015</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39.08382757264392</v>
+        <v>39.08382757265665</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.710511278804894</v>
+        <v>6.710511278842297</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.15049275084105</v>
+        <v>28.15049275090232</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.09740081107041</v>
+        <v>34.09740081115158</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20.55740903440981</v>
+        <v>20.55740903435876</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>38.34414973379601</v>
+        <v>38.34414973378407</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>43.63312400632433</v>
+        <v>43.6331240063457</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>46.08412055673634</v>
+        <v>46.0841205566745</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>52.95154159002968</v>
+        <v>52.95154159005356</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>58.25962288506046</v>
+        <v>58.25962288505546</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18.86913771465854</v>
+        <v>18.86913771466639</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>47.52949293226877</v>
+        <v>47.52949293224979</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>54.97595762883245</v>
+        <v>54.97595762882177</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>13.08475936334433</v>
+        <v>13.08475936336615</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>45.63166878307263</v>
+        <v>45.63166878314403</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>53.11513028985721</v>
+        <v>53.11513028990087</v>
       </c>
     </row>
     <row r="35">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.19037351739846</v>
+        <v>42.19037351745644</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>48.13673427575052</v>
+        <v>48.13673427577576</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>34.59761103936874</v>
+        <v>34.59761103945787</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.38699098206801</v>
+        <v>52.38699098205868</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>57.67575109614527</v>
+        <v>57.67575109613754</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>60.13475827815771</v>
+        <v>60.13475827813895</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>67.00290752380326</v>
+        <v>67.00290752377802</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>72.31151264237948</v>
+        <v>72.31151264229797</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.91492480778854</v>
+        <v>32.91492480774671</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>61.57909535315614</v>
+        <v>61.5790953530852</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>69.02559304449616</v>
+        <v>69.02559304445046</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-1.17231612235971</v>
+        <v>-1.172316122416099</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.36750053491821</v>
+        <v>31.36750053493913</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>38.84612263071083</v>
+        <v>38.84612263064648</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.489728275880431</v>
+        <v>6.489728275880317</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.92667965072676</v>
+        <v>27.92667965077599</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.86828530131854</v>
+        <v>33.8682853013165</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>20.33041797301755</v>
+        <v>20.33041797300209</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>38.11385432486825</v>
+        <v>38.11385432484779</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43.39831860766547</v>
+        <v>43.39831860764864</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>45.8521752694239</v>
+        <v>45.85217526943914</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>52.71856855710687</v>
+        <v>52.71856855703297</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>58.02288062408852</v>
+        <v>58.02288062408909</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>18.63674986898477</v>
+        <v>18.63674986901342</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>47.29031545147732</v>
+        <v>47.29031545145595</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>54.7334425244894</v>
+        <v>54.73344252449531</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2.994905554846675</v>
+        <v>2.994905554772551</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.53947915390413</v>
+        <v>35.53947915381728</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.02229124925632</v>
+        <v>43.02229124917492</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10.65050605543147</v>
+        <v>10.65050605535053</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.09143843858065</v>
+        <v>32.09143843855268</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.03733210130802</v>
+        <v>38.03733210128141</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>24.49759407320355</v>
+        <v>24.49759407328359</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>42.28525835124467</v>
+        <v>42.28525835116236</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>47.57338540410908</v>
+        <v>47.57338540406861</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>50.02440924665175</v>
+        <v>50.02440924669927</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>56.89258527913066</v>
+        <v>56.89258527913282</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>62.19943364260141</v>
+        <v>62.19943364260789</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>22.80805900445203</v>
+        <v>22.80805900447499</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>51.46964982105587</v>
+        <v>51.46964982106747</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>58.91512791555201</v>
+        <v>58.9151279155237</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.02460492019518</v>
+        <v>17.0246049202859</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>49.57208497410475</v>
+        <v>49.57208497414727</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>57.05459582058857</v>
+        <v>57.05459582060005</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>24.6880144574561</v>
+        <v>24.6880144574636</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>46.13232103683161</v>
+        <v>46.13232103679045</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>52.07766739568635</v>
+        <v>52.07766739564884</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>38.53879770138006</v>
+        <v>38.53879770137346</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>56.32910136671158</v>
+        <v>56.32910136666758</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>61.61701420316215</v>
+        <v>61.61701420301311</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>64.07604828634678</v>
+        <v>64.07604828636565</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>70.94495257908486</v>
+        <v>70.94495257905473</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>76.25232467641555</v>
+        <v>76.252324676406</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>36.85484747751932</v>
+        <v>36.8548474775524</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>65.52025371102408</v>
+        <v>65.52025371101203</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>72.96576475516426</v>
+        <v>72.96576475511139</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-0.931986313671608</v>
+        <v>-0.9319863137135584</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.60769591616438</v>
+        <v>31.60769591617018</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>39.08622760409956</v>
+        <v>39.08622760407454</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.729664313933178</v>
+        <v>6.729664313912259</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.16639917945324</v>
+        <v>28.16639917952418</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.10792577149162</v>
+        <v>34.10792577147161</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>20.57043590462749</v>
+        <v>20.570435904635</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>38.35366604771693</v>
+        <v>38.35366604774263</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>43.6380553348715</v>
+        <v>43.63805533486491</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>46.09212095650648</v>
+        <v>46.09212095659891</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>52.95834058568082</v>
+        <v>52.95834058570959</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>58.26262857839013</v>
+        <v>58.26262857839479</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>18.87674169687146</v>
+        <v>18.87674169691147</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>47.53007184170722</v>
+        <v>47.53007184170813</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>54.97306459129093</v>
+        <v>54.97306459121658</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3.238223841202263</v>
+        <v>3.238223841171454</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.78266310547028</v>
+        <v>35.78266310546494</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.26538475531513</v>
+        <v>43.26538475533582</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>10.89343075391933</v>
+        <v>10.89343075389545</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.33414671288708</v>
+        <v>32.33414671292778</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>38.27996128270772</v>
+        <v>38.27996128274388</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>24.74060081099081</v>
+        <v>24.74060081098353</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.52805895092909</v>
+        <v>42.52805895091272</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>47.81611097787206</v>
+        <v>47.81611097782477</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>50.26734366693186</v>
+        <v>50.26734366696278</v>
       </c>
     </row>
     <row r="117">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>62.44217024968314</v>
+        <v>62.44217024969223</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>23.05103942357093</v>
+        <v>23.05103942357275</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>51.71239483758834</v>
+        <v>51.71239483754241</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>59.15773857976647</v>
+        <v>59.15773857980739</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>17.26807624015985</v>
+        <v>17.26807624014121</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>49.81542199088174</v>
+        <v>49.81542199088879</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>57.29784239735054</v>
+        <v>57.29784239732735</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>24.93109219074504</v>
+        <v>24.93109219074402</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>46.37518238366952</v>
+        <v>46.37518238366031</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>52.32044965364637</v>
+        <v>52.32044965361522</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38.78195750250402</v>
+        <v>38.78195750253483</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>56.57205505667125</v>
+        <v>56.57205505661475</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>61.85989287094092</v>
+        <v>61.8598928708627</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>64.3191357940195</v>
+        <v>64.31913579403394</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>71.18786641491428</v>
+        <v>71.18786641491792</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>76.49521440643568</v>
+        <v>76.49521440640078</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>37.09798095931522</v>
+        <v>37.09798095929998</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>65.763151848354</v>
+        <v>65.76315184833422</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.20852854929055</v>
+        <v>73.20852854928191</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-7.39312441285724</v>
+        <v>-7.393124412880432</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.14539758505712</v>
+        <v>25.14539758504302</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>32.6247092458884</v>
+        <v>32.62470924586521</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.267071473843977</v>
+        <v>0.2670714738238544</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21.70242507845771</v>
+        <v>21.70242507842327</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>27.64478105326223</v>
+        <v>27.6447810532238</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.10729415186311</v>
+        <v>14.10729415182536</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.88926283048804</v>
+        <v>31.88926283051851</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>37.17430952826587</v>
+        <v>37.17430952824132</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.62826012706908</v>
+        <v>39.62826012707658</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>46.49372137727253</v>
+        <v>46.49372137723092</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>51.79915849932988</v>
+        <v>51.7991584993192</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>12.41500903604047</v>
+        <v>12.41500903596759</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>41.06658632694903</v>
+        <v>41.06658632694914</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>48.5103933971536</v>
+        <v>48.51039339713268</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-3.219705615401175</v>
+        <v>-3.21970561543926</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.32357352737811</v>
+        <v>29.3235735273423</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.80707527953926</v>
+        <v>36.80707527954699</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>4.434046877213724</v>
+        <v>4.434046877177231</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.87338168241363</v>
+        <v>25.87338168234076</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.82002575511249</v>
+        <v>31.82002575506133</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>18.28066787026851</v>
+        <v>18.28066787030148</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.06686470553527</v>
+        <v>36.06686470552277</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>41.35557424791521</v>
+        <v>41.3555742479118</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>43.806691616385</v>
+        <v>43.80669161632498</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>50.67393571945852</v>
+        <v>50.67393571944761</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>55.98190925834863</v>
+        <v>55.98190925832862</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>16.59251513357501</v>
+        <v>16.59251513347645</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.25211796501751</v>
+        <v>45.25211796500944</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>52.6982760391172</v>
+        <v>52.69827603916585</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>10.80932890575648</v>
+        <v>10.8093289056819</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>43.35551441112123</v>
+        <v>43.35551441113578</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>50.83871494777029</v>
+        <v>50.83871494772664</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18.4708903279055</v>
+        <v>18.47089032784536</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.91359922299453</v>
+        <v>39.91359922297986</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>45.85969599161533</v>
+        <v>45.85969599158964</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>32.32120670647337</v>
+        <v>32.32120670647451</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>50.11004276469667</v>
+        <v>50.11004276469325</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.39853813962916</v>
+        <v>55.39853813964758</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>57.8576660470537</v>
+        <v>57.85766604701369</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>64.7256383423107</v>
+        <v>64.72563834226068</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>70.03413567989512</v>
+        <v>70.03413567990876</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>30.63863896901919</v>
+        <v>30.6386389689337</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>59.30205707673574</v>
+        <v>59.30205707677394</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>66.74824812600875</v>
+        <v>66.74824812603603</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>2.389296041810077</v>
+        <v>2.389296041821332</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>34.9290013615183</v>
+        <v>34.92900136145202</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>42.40821239061913</v>
+        <v>42.40821239061504</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>10.05071837696162</v>
+        <v>10.05071837698708</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31.48729089816513</v>
+        <v>31.48729089816604</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>37.4295324504619</v>
+        <v>37.42953245046304</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23.89173169294597</v>
+        <v>23.89173169298406</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>41.67479237982591</v>
+        <v>41.67479237984012</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>46.95975110846846</v>
+        <v>46.95975110847505</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>49.41359688761438</v>
+        <v>49.41359688761802</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>56.27942151804334</v>
+        <v>56.27942151801697</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>61.58474982670484</v>
+        <v>61.58474982668961</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.19891706149426</v>
+        <v>22.19891706151518</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>50.85172067704091</v>
+        <v>50.85172067704818</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>58.29543305023933</v>
+        <v>58.29543305022478</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>6.563769557160505</v>
+        <v>6.563769557169941</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>39.1082320775955</v>
+        <v>39.10823207760652</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>46.59163308842674</v>
+        <v>46.59163308841764</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.21874850673519</v>
+        <v>14.21874850670165</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.65930229030139</v>
+        <v>35.65930229039359</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>41.60583182209732</v>
+        <v>41.60583182217668</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.06616024983393</v>
+        <v>28.06616024985929</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>45.85344914735172</v>
+        <v>45.85344914737252</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>51.14207059984776</v>
+        <v>51.14207059987641</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>53.59308323072819</v>
+        <v>53.59308323071728</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>60.46069071640168</v>
+        <v>60.46069071637667</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>65.76855539894379</v>
+        <v>65.7685553988824</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.37747816101703</v>
+        <v>26.37747816097576</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>55.03830740051738</v>
+        <v>55.03830740051294</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>62.48437067744621</v>
+        <v>62.48437067743246</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>20.59164115656674</v>
+        <v>20.59164115653946</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>53.13900999028144</v>
+        <v>53.13900999026189</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>60.62210980518214</v>
+        <v>60.62210980513144</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.25442908089165</v>
+        <v>28.25442908092803</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>49.69835690265629</v>
+        <v>49.69835690265788</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>55.64433914878575</v>
+        <v>55.6443391488401</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>42.10553612036276</v>
+        <v>42.10553612036822</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>59.89546419159192</v>
+        <v>59.89546419163694</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>65.18387149678355</v>
+        <v>65.18387149679037</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>67.64289474544191</v>
+        <v>67.64289474542679</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>74.51123042605261</v>
+        <v>74.51123042597462</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>79.81961890592672</v>
+        <v>79.81961890589068</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>40.42243911044373</v>
+        <v>40.42243911040553</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>69.08708361868977</v>
+        <v>69.08708361869523</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>76.53317989302897</v>
+        <v>76.53317989299418</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>4.278378506142396</v>
+        <v>4.278378506135347</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>36.81633305595367</v>
+        <v>36.81633305597573</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>44.29413285536609</v>
+        <v>44.29413285538269</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>11.9398464563453</v>
+        <v>11.9398464563636</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>33.37582035161379</v>
+        <v>33.37582035165483</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>39.31673474513625</v>
+        <v>39.31673474515762</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.78027433116231</v>
+        <v>25.78027433120619</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>43.56287683396076</v>
+        <v>43.56287683401738</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>48.84672171556279</v>
+        <v>48.84672171557938</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>51.30048339810649</v>
+        <v>51.3004833980626</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>58.16637830282693</v>
+        <v>58.16637830277828</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>63.47038658950951</v>
+        <v>63.47038658950996</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>24.08662537703842</v>
+        <v>24.0866253770532</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>52.7383930072974</v>
+        <v>52.73839300728125</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>60.18070599377254</v>
+        <v>60.18070599375651</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>8.452713046551345</v>
+        <v>8.452713046528835</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>40.99542438919489</v>
+        <v>40.99542438917874</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>48.47741369707158</v>
+        <v>48.47741369707521</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>16.10773788038157</v>
+        <v>16.10773788038714</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>37.54769270447057</v>
+        <v>37.54769270443794</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>43.49289460777275</v>
+        <v>43.49289460773864</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.95456389936451</v>
+        <v>29.95456389939248</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>47.74139422909341</v>
+        <v>47.74139422911455</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>53.0289014007403</v>
+        <v>53.02890140069255</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>55.47983031401871</v>
+        <v>55.47983031402598</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>62.34750792152679</v>
+        <v>62.34750792158591</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>67.65405227881385</v>
+        <v>67.65405227882385</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.26504741430629</v>
+        <v>28.26504741433539</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>56.92483997022155</v>
+        <v>56.92483997021154</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>64.36950361448325</v>
+        <v>64.3695036144687</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.4801048524474</v>
+        <v>22.480104852449</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>55.02572230597762</v>
+        <v>55.02572230602514</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>62.50741036657823</v>
+        <v>62.50741036650923</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>30.14293784638355</v>
+        <v>30.14293784638731</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>51.58626646379387</v>
+        <v>51.58626646378489</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>57.53092105935239</v>
+        <v>57.53092105937649</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>43.99345881190468</v>
+        <v>43.99345881195766</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>61.78292817952477</v>
+        <v>61.78292817949987</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>67.07022114404614</v>
+        <v>67.07022114405103</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>69.52915976568315</v>
+        <v>69.52915976568303</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>76.39756550281513</v>
+        <v>76.39756550271895</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>81.70463348938924</v>
+        <v>81.70463348931818</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>42.30952671918917</v>
+        <v>42.30952671913858</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>70.97313429751202</v>
+        <v>70.97313429750315</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>78.41783086525331</v>
+        <v>78.41783086519499</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-9.127282657825639</v>
+        <v>-9.127282657838144</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.40898595710585</v>
+        <v>23.40898595712063</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>30.88752807656235</v>
+        <v>30.88752807660442</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-1.467299224445263</v>
+        <v>-1.467299224470615</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.96672160252476</v>
+        <v>19.96672160250032</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.90844697932514</v>
+        <v>25.90844697929194</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>12.37197058449974</v>
+        <v>12.37197058449633</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.15278786849522</v>
+        <v>30.15278786848271</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>35.43735583043574</v>
+        <v>35.43735583042324</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>37.89133572689364</v>
+        <v>37.89133572684975</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>44.75651625375006</v>
+        <v>44.75651625370185</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>50.06082647765991</v>
+        <v>50.06082647760534</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>10.67933065417512</v>
+        <v>10.67933065417171</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>39.32927594517967</v>
+        <v>39.3292759451708</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>46.77230823640773</v>
+        <v>46.77230823639159</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-4.950072188656939</v>
+        <v>-4.95007218866126</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.59095343360386</v>
+        <v>27.59095343365139</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.0736854111344</v>
+        <v>35.07368541113258</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>2.703468598672295</v>
+        <v>2.703468598637848</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>24.14147053885561</v>
+        <v>24.14147053882662</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.08748380544623</v>
+        <v>30.08748380547761</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>16.54913660727332</v>
+        <v>16.54913660732675</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>34.33418191873555</v>
+        <v>34.33418191869485</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>39.62241253622867</v>
+        <v>39.62241253622094</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.07355918821029</v>
+        <v>42.07355918817391</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>48.94052245299734</v>
+        <v>48.94052245297642</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>54.24736885414061</v>
+        <v>54.24736885408513</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>14.86062862776974</v>
+        <v>14.86062862780611</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>43.51859907611331</v>
+        <v>43.51859907613264</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>50.963982296367</v>
+        <v>50.96398229637951</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>9.078857023725142</v>
+        <v>9.078857023755837</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>41.62278897082033</v>
+        <v>41.62278897083147</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>49.10521967539442</v>
+        <v>49.10521967535963</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>16.74020622073656</v>
+        <v>16.74020622073304</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>38.18158218916913</v>
+        <v>38.18158218915651</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>44.12704813858088</v>
+        <v>44.12704813854678</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>30.5895693305117</v>
+        <v>30.58956933054649</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>48.37725387902262</v>
+        <v>48.3772538789651</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>53.66527027945492</v>
+        <v>53.66527027942696</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>56.12442659875146</v>
+        <v>56.12442659871133</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>62.99211807410379</v>
+        <v>62.99211807412403</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>68.29948819027763</v>
+        <v>68.29948819030844</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.90664577248558</v>
+        <v>28.90664577250048</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>57.56843144075365</v>
+        <v>57.56843144076115</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>65.01384760530865</v>
+        <v>65.013847605314</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-11.19476932788896</v>
+        <v>-11.19476932786315</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>21.34435953978684</v>
+        <v>21.34435953980424</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.82368981902184</v>
+        <v>28.82368981904822</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-3.534122568602946</v>
+        <v>-3.534122568555311</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>17.90185247615612</v>
+        <v>17.90185247613463</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.84419154372652</v>
+        <v>23.84419154376335</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>10.30612061931081</v>
+        <v>10.30612061935526</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.08861952500749</v>
+        <v>28.08861952498987</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>33.37368634302877</v>
+        <v>33.3736863430672</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.82789140409748</v>
+        <v>35.82789140409043</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.69362066101323</v>
+        <v>42.69362066098095</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>47.99904385314787</v>
+        <v>47.99904385314651</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>8.613791698682782</v>
+        <v>8.613791698705064</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>37.26606433913694</v>
+        <v>37.2660643391574</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>44.70985385974266</v>
+        <v>44.70985385981042</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-7.022944450854219</v>
+        <v>-7.022944450810336</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.52094158120585</v>
+        <v>25.52094158122836</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>33.00446189650913</v>
+        <v>33.00446189651777</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.6312587893519108</v>
+        <v>0.6312587893348578</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>22.07121505076564</v>
+        <v>22.07121505078951</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.01784215067958</v>
+        <v>28.01784215068344</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>14.47790031243446</v>
+        <v>14.47790031244197</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>32.26462739043289</v>
+        <v>32.26462739044766</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>37.55335699174086</v>
+        <v>37.55335699177201</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>40.00472897441657</v>
+        <v>40.00472897441839</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>46.87224107516202</v>
+        <v>46.87224107516156</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>52.18020067747828</v>
+        <v>52.18020067744462</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>12.78970402610967</v>
+        <v>12.7897040261382</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>41.45000223241377</v>
+        <v>41.45000223236432</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>48.89614271359958</v>
+        <v>48.89614271360026</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>7.005817877953952</v>
+        <v>7.005817877992264</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>39.55261027213542</v>
+        <v>39.55261027211802</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>47.03582942097203</v>
+        <v>47.03582942091337</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.66783011314144</v>
+        <v>14.66783011317509</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.11116047155381</v>
+        <v>36.11116047161384</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>42.0572403185872</v>
+        <v>42.05724031860357</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.51816698817911</v>
+        <v>28.51816698823198</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.30753329659601</v>
+        <v>46.30753329664979</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>51.59604877454579</v>
+        <v>51.59604877452941</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>54.05543124197036</v>
+        <v>54.05543124199446</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>60.9236715591853</v>
+        <v>60.92367155921441</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>66.23215498640704</v>
+        <v>66.23215498641932</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>26.83555568548125</v>
+        <v>26.83555568549523</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>55.49966920008533</v>
+        <v>55.49966920010829</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>62.94584269826928</v>
+        <v>62.94584269829395</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>5.652460324513733</v>
+        <v>5.652460324505206</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>38.19189132355164</v>
+        <v>38.19189132354584</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>45.67010496112923</v>
+        <v>45.67010496117562</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>13.31542592081755</v>
+        <v>13.31542592080607</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>34.75246659403852</v>
+        <v>34.75246659401748</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>40.69375140867667</v>
+        <v>40.69375140861391</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>27.1562032056497</v>
+        <v>27.15620320572541</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>44.93964393149233</v>
+        <v>44.93964393156896</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>50.22385302800942</v>
+        <v>50.2238530280117</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>52.67789505686708</v>
+        <v>52.67789505688379</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>59.54409376327997</v>
+        <v>59.5440937633151</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>64.84816806644855</v>
+        <v>64.84816806638489</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.46301401437731</v>
+        <v>25.46301401431763</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>54.11619843089611</v>
+        <v>54.11619843087349</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>61.55898149891014</v>
+        <v>61.5589814989605</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>9.820403310466737</v>
+        <v>9.820403310449116</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>42.36459119942842</v>
+        <v>42.36459119947583</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>49.84699448729382</v>
+        <v>49.84699448726176</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>17.47692524095508</v>
+        <v>17.47692524094007</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>38.91794693174823</v>
+        <v>38.91794693177324</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>44.86351939199174</v>
+        <v>44.86351939200356</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>31.32410054223906</v>
+        <v>31.32410054228726</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>49.11176919294108</v>
+        <v>49.11176919296904</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>54.39964068775382</v>
+        <v>54.3996406877611</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>56.85085002155913</v>
+        <v>56.85085002159961</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>63.71883141618989</v>
+        <v>63.71883141617409</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>69.02544187003943</v>
+        <v>69.02544187004625</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.63504414788472</v>
+        <v>29.63504414788984</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>58.29625368281868</v>
+        <v>58.29625368280811</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>65.74138744009949</v>
+        <v>65.7413874401179</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>23.84848395039874</v>
+        <v>23.84848395038646</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>56.39557809178834</v>
+        <v>56.39557809183609</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>63.87768014353808</v>
+        <v>63.87768014357901</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.51281460543974</v>
+        <v>31.51281460538642</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>52.95721024572695</v>
+        <v>52.95721024574821</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>58.90223542301155</v>
+        <v>58.90223542304077</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>45.36368492556105</v>
+        <v>45.36368492562574</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>63.15399273772855</v>
+        <v>63.15399273773503</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>68.44165005284944</v>
+        <v>68.44165005289196</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>70.90086931883124</v>
+        <v>70.90086931883806</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>77.76957891953234</v>
+        <v>77.76957891949823</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>83.07671304979985</v>
+        <v>83.07671304979303</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>43.68021313466134</v>
+        <v>43.68021313463064</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>72.34523787068562</v>
+        <v>72.34523787069597</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>79.79040458025415</v>
+        <v>79.79040458026631</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-15.56252649848445</v>
+        <v>-15.56252649849991</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.97311489662591</v>
+        <v>16.97311489656656</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>24.45197913718378</v>
+        <v>24.45197913719014</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-7.903093471368514</v>
+        <v>-7.903093471398869</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>13.5303202525665</v>
+        <v>13.53032025255411</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>19.47236150128922</v>
+        <v>19.47236150126944</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>5.935576014294362</v>
+        <v>5.935576014298341</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.71598985009835</v>
+        <v>23.71598985008436</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.00080132778405</v>
+        <v>29.00080132779906</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.45407653909556</v>
+        <v>31.45407653903985</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.31934973100793</v>
+        <v>38.31934973095131</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>43.62391585597218</v>
+        <v>43.62391585597354</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>4.24233939876067</v>
+        <v>4.242339398719061</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>32.89184715138399</v>
+        <v>32.89184715135693</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>40.33520433095689</v>
+        <v>40.33520433094575</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-11.39032473612885</v>
+        <v>-11.39032473619888</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>21.15007335602443</v>
+        <v>21.15007335599942</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.63312765821636</v>
+        <v>28.63312765824364</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-3.737334597511925</v>
+        <v>-3.737334597597304</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>17.70005991302478</v>
+        <v>17.70005991298488</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.64638925973961</v>
+        <v>23.64638925968141</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>10.10773294237581</v>
+        <v>10.10773294243436</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27.89237448107244</v>
+        <v>27.89237448107824</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.18084886006543</v>
+        <v>33.18084886007816</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>35.63129094236908</v>
+        <v>35.63129094237591</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>42.49834681078139</v>
+        <v>42.49834681077025</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>47.80544914910408</v>
+        <v>47.80544914911</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>8.418628567911789</v>
+        <v>8.418628567920997</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.07616107244369</v>
+        <v>37.07616107241584</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>44.52186944962612</v>
+        <v>44.52186944962703</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>2.638910166529719</v>
+        <v>2.638910166522329</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>35.18221458764194</v>
+        <v>35.18221458764138</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>42.66496768282352</v>
+        <v>42.66496768284217</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>10.29970886368788</v>
+        <v>10.29970886364831</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>31.74047742295839</v>
+        <v>31.74047742293315</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>37.6862595189509</v>
+        <v>37.68625951896409</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24.1484714399928</v>
+        <v>24.14847144003316</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>41.93575225620291</v>
+        <v>41.93575225618074</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>47.22401245127819</v>
+        <v>47.22401245128092</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>49.68246423494472</v>
+        <v>49.68246423494495</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>56.55024831909825</v>
+        <v>56.55024831908222</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>61.8578744953031</v>
+        <v>61.85787449529139</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.46495162246104</v>
+        <v>22.46495162248355</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>51.12629935155631</v>
+        <v>51.12629935156176</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>58.57204073637283</v>
+        <v>58.57204073636021</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-2.827293034730154</v>
+        <v>-2.827293034718785</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.71097719486634</v>
+        <v>29.71097719483223</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>37.18919387960384</v>
+        <v>37.18919387959702</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>4.833251114639758</v>
+        <v>4.83325111458894</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.26894415307718</v>
+        <v>26.26894415300635</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>32.21019453654728</v>
+        <v>32.21019453648226</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18.67351865601345</v>
+        <v>18.67351865600822</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>36.45591985728638</v>
+        <v>36.45591985736187</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>41.74003467396549</v>
+        <v>41.74003467398231</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>44.19390990454495</v>
+        <v>44.19390990452425</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>51.05984500442955</v>
+        <v>51.05984500435611</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>56.36402888352709</v>
+        <v>56.36402888347161</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>16.9796348714825</v>
+        <v>16.97963487156492</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>45.63163941895014</v>
+        <v>45.63163941895844</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>53.07426832714734</v>
+        <v>53.07426832720828</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>1.346306476749625</v>
+        <v>1.346306476722454</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.88933359385019</v>
+        <v>33.88933359382938</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>41.37174011828368</v>
+        <v>41.3717401182739</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>9.000407314792689</v>
+        <v>9.000407314902624</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.44008131031817</v>
+        <v>30.44008131028918</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>36.38561954945246</v>
+        <v>36.38561954945997</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.84707331308082</v>
+        <v>22.84707331311709</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.6337023632078</v>
+        <v>40.6337023632261</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>45.92147983069683</v>
+        <v>45.92147983066818</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>48.37252214103726</v>
+        <v>48.3725221411373</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>55.24023990840622</v>
+        <v>55.24023990833346</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>60.54695997583142</v>
+        <v>60.54695997574786</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>21.15732211277052</v>
+        <v>21.15732211283817</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>49.8173516554841</v>
+        <v>49.81735165548353</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>57.26233152775328</v>
+        <v>57.26233152776545</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>15.37587005233738</v>
+        <v>15.3758700523234</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>47.92180355902222</v>
+        <v>47.92180355899959</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>55.40390884626434</v>
+        <v>55.40390884625479</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>23.03777953108622</v>
+        <v>23.03777953113761</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>44.48082765342404</v>
+        <v>44.48082765339925</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>50.42581859730397</v>
+        <v>50.42581859727691</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.88814070394469</v>
+        <v>36.88814070393457</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>54.67740908961705</v>
+        <v>54.67740908963012</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>59.96497233616933</v>
+        <v>59.96497233618036</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>62.42402462730988</v>
+        <v>62.42402462726429</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>69.2924706451839</v>
+        <v>69.29247064511932</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>74.59971443104413</v>
+        <v>74.59971443096785</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>35.20397415050125</v>
+        <v>35.20397415043519</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>63.8678190415362</v>
+        <v>63.86781904145082</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>71.31283186026198</v>
+        <v>71.31283186021469</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-15.86791292135015</v>
+        <v>-15.86791292133355</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.66898196572081</v>
+        <v>16.66898196578379</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.14750107467442</v>
+        <v>24.1475010746319</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-8.208757057118326</v>
+        <v>-8.208757057105025</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>13.22547040624577</v>
+        <v>13.22547040623179</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.16705428909606</v>
+        <v>19.16705428910925</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>5.630542486118294</v>
+        <v>5.630542486096239</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.41160443493605</v>
+        <v>23.41160443491126</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.69601745318116</v>
+        <v>28.69601745309453</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.1499524050698</v>
+        <v>31.14995240503433</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.01546562975907</v>
+        <v>38.01546562969609</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>43.31971719363603</v>
+        <v>43.31971719360329</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>3.937284944183467</v>
+        <v>3.93728494415334</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>32.58772792987711</v>
+        <v>32.58772792988336</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>40.03064977791971</v>
+        <v>40.03064977792062</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-11.69900740599214</v>
+        <v>-11.6990074060433</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>20.84264422759006</v>
+        <v>20.84264422755755</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.32535334253587</v>
+        <v>28.32535334254928</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-4.046295045934265</v>
+        <v>-4.046295046081489</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>17.39191322262977</v>
+        <v>17.39191322268469</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.33778514703656</v>
+        <v>23.33778514702474</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>9.799402637273921</v>
+        <v>9.799402637220034</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>27.58469230705621</v>
+        <v>27.58469230701346</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>32.87276814496747</v>
+        <v>32.87276814495338</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>35.32387029385084</v>
+        <v>35.3238702938098</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.19116614736115</v>
+        <v>42.19116614739401</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>47.49795396160673</v>
+        <v>47.49795396153943</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>8.110277849059209</v>
+        <v>8.110277849103319</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.76874570996367</v>
+        <v>36.76874570996026</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>44.2140186340391</v>
+        <v>44.214018634015</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>2.332545486351911</v>
+        <v>2.332545486363962</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.87710362006496</v>
+        <v>34.87710362008156</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>42.35951144593876</v>
+        <v>42.3595114459499</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>9.993066590388118</v>
+        <v>9.99306659036845</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>31.43464909678674</v>
+        <v>31.43464909674683</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>37.37997367705223</v>
+        <v>37.37997367701585</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>23.84245955637866</v>
+        <v>23.8424595562951</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.63038867132887</v>
+        <v>41.63038867126713</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>46.91825024451985</v>
+        <v>46.91825024442731</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>49.3773622503471</v>
+        <v>49.37736225026888</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>56.24538636788598</v>
+        <v>56.24538636788962</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>61.55269790234454</v>
+        <v>61.55269790233545</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>22.15891927282835</v>
+        <v>22.15891927284927</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>50.82120254294839</v>
+        <v>50.82120254294885</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>58.26650836535939</v>
+        <v>58.26650836535666</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-22.08833944903929</v>
+        <v>-22.08833944913285</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.44684780716714</v>
+        <v>10.44684780712542</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>17.92493982525387</v>
+        <v>17.92493982518656</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-14.43026448900914</v>
+        <v>-14.43026448909452</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.002623471793505</v>
+        <v>7.002623471790891</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.94379848983952</v>
+        <v>12.94379848980427</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-0.5918535165518719</v>
+        <v>-0.5918535165428906</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>17.18808226100359</v>
+        <v>17.18808226110011</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.47209673160544</v>
+        <v>22.47209673162568</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.92622789905634</v>
+        <v>24.92622789908362</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.79134616496479</v>
+        <v>31.79134616496274</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>37.09544159620234</v>
+        <v>37.09544159618597</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-2.284883897516941</v>
+        <v>-2.28488389748852</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.36393248109651</v>
+        <v>26.36393248106558</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.80642507163859</v>
+        <v>33.80642507162927</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-17.91832042827721</v>
+        <v>-17.91832042832268</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>14.62162339517429</v>
+        <v>14.62162339521635</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.10390528641549</v>
+        <v>22.10390528642595</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-10.26668869954712</v>
+        <v>-10.26668869953428</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.17017990630936</v>
+        <v>11.17017990632403</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>17.11564282620245</v>
+        <v>17.11564282621519</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.578120302117306</v>
+        <v>3.578120302159256</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.3622836299538</v>
+        <v>21.36228362999052</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>26.64996081867432</v>
+        <v>26.64996081866</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.10125923974883</v>
+        <v>29.10125923978521</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.96816008948563</v>
+        <v>35.968160089512</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>41.27479169256637</v>
+        <v>41.27479169260912</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>1.88922243252123</v>
+        <v>1.889222432545218</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.54606336275069</v>
+        <v>30.54606336271102</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>37.99090698572306</v>
+        <v>37.99090698569783</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-3.887069991806037</v>
+        <v>-3.88706999177284</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.65578022416421</v>
+        <v>28.65578022422105</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.13776085452421</v>
+        <v>36.13776085452057</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>3.772370083503326</v>
+        <v>3.772370083397597</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.21261280583347</v>
+        <v>25.21261280577526</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.15752841829815</v>
+        <v>31.15752841824926</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>17.62087430563404</v>
+        <v>17.62087430561721</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.40767698441093</v>
+        <v>35.40767698438683</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>40.69513992447808</v>
+        <v>40.69513992445807</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>43.15444790812783</v>
+        <v>43.15444790811669</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>50.02207697916126</v>
+        <v>50.02207697920083</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>55.32923228447519</v>
+        <v>55.3292322844645</v>
       </c>
     </row>
     <row r="584">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>44.59821690854231</v>
+        <v>44.59821690853685</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>52.04309344112765</v>
+        <v>52.04309344108217</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-5.343326998550786</v>
+        <v>-5.343326998603196</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.19577491856328</v>
+        <v>27.19577491857704</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>34.67522571128141</v>
+        <v>34.67522571129323</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2.317114369313892</v>
+        <v>2.317114369299681</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.75293238478137</v>
+        <v>23.75293238473078</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.69543446718442</v>
+        <v>29.69543446719215</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>16.157748367925</v>
+        <v>16.15774836796582</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>33.94013597950082</v>
+        <v>33.94013597951048</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>39.22534145208304</v>
+        <v>39.22534145210509</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>41.67932150913564</v>
+        <v>41.67932150914314</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>48.54496185193577</v>
+        <v>48.54496185199444</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>53.85033653613957</v>
+        <v>53.85033653616549</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>14.4653786740947</v>
+        <v>14.46537867412426</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>43.11755812115516</v>
+        <v>43.11755812116471</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>50.56151838274739</v>
+        <v>50.56151838276785</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-1.172368638125725</v>
+        <v>-1.172368638216447</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.3714904327861</v>
+        <v>31.37149043279405</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>38.85513134264486</v>
+        <v>38.85513134266078</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>6.48162909012192</v>
+        <v>6.481629090113962</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.92142830403962</v>
+        <v>27.92142830402711</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>33.86821851996203</v>
+        <v>33.86821851993498</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>20.32866136245818</v>
+        <v>20.32866136244386</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>38.11527713731719</v>
+        <v>38.11527713733197</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.40414547786552</v>
+        <v>43.40414547783846</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>45.85529241024276</v>
+        <v>45.8552924102846</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>52.72271559244516</v>
+        <v>52.72271559243743</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>58.03062665764842</v>
+        <v>58.03062665769844</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>18.64042428876301</v>
+        <v>18.64042428877699</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>47.30062931828079</v>
+        <v>47.30062931827499</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>54.74694059122837</v>
+        <v>54.74694059118904</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>12.85711242278135</v>
+        <v>12.85711242280875</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>45.40387792464512</v>
+        <v>45.40387792467502</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>52.88721762495263</v>
+        <v>52.88721762497037</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>20.51891931399403</v>
+        <v>20.51891931405314</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>41.96209269988547</v>
+        <v>41.96209269989092</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>47.90833561838756</v>
+        <v>47.9083356183821</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>34.36964698520806</v>
+        <v>34.36964698523727</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>52.15890205507421</v>
+        <v>52.15890205509888</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>57.44755623697959</v>
+        <v>57.44755623701415</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>59.90671374927181</v>
+        <v>59.90671374928818</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>66.77486515809707</v>
+        <v>66.77486515811162</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>72.08330006591015</v>
+        <v>72.08330006591697</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.68699495893541</v>
+        <v>32.68699495895303</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>61.35101536273155</v>
+        <v>61.35101536272723</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>68.79735962231834</v>
+        <v>68.79735962228844</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-4.039067398135579</v>
+        <v>-4.039067398069527</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.49883113164717</v>
+        <v>28.49883113170549</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.97744559441455</v>
+        <v>35.97744559436953</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>3.621915575031586</v>
+        <v>3.621915575070808</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.05725153490651</v>
+        <v>25.05725153487797</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>30.99892254228937</v>
+        <v>30.99892254227482</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>17.46175367484111</v>
+        <v>17.46175367484532</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>35.24385767000545</v>
+        <v>35.24385767009765</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>40.52836003529726</v>
+        <v>40.52836003535297</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>42.98189714106181</v>
+        <v>42.98189714107819</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>49.84780917433861</v>
+        <v>49.84780917430405</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>55.15210228686212</v>
+        <v>55.1521022868121</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.76799051039868</v>
+        <v>15.76799051039016</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>44.41974970970862</v>
+        <v>44.41974970974557</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>51.86285361134899</v>
+        <v>51.86285361132079</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>0.1281927511048266</v>
+        <v>0.1281927510922074</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.67084803551629</v>
+        <v>32.6708480354491</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.15365248323472</v>
+        <v>40.15365248322971</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>7.782732179233996</v>
+        <v>7.782732179170559</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.22204896622291</v>
+        <v>29.22204896624837</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>35.16800798137476</v>
+        <v>35.16800798139659</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>21.62896836654179</v>
+        <v>21.62896836647597</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>39.41530010755694</v>
+        <v>39.41530010753181</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.70346527267041</v>
+        <v>44.70346527267655</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>47.15416952794735</v>
+        <v>47.15416952794019</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>54.02186423732528</v>
+        <v>54.02186423726355</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>59.32869356741671</v>
+        <v>59.32869356735885</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>19.93933797788359</v>
+        <v>19.93933797788336</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>48.59912207762464</v>
+        <v>48.59912207768011</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>56.04457706468222</v>
+        <v>56.04457706466881</v>
       </c>
     </row>
     <row r="662">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>46.70306577480856</v>
+        <v>46.7030657747574</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>54.18556899773078</v>
+        <v>54.1855689977094</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>21.81985231166252</v>
+        <v>21.81985231161728</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>43.26254323696705</v>
+        <v>43.2625432369766</v>
       </c>
     </row>
     <row r="667">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>35.66978362504322</v>
+        <v>35.66978362506652</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>53.45875471196039</v>
+        <v>53.45875471202621</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>58.74670566867096</v>
+        <v>58.74670566868233</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.20541993741447</v>
+        <v>61.20541993741811</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>68.07384290736977</v>
+        <v>68.07384290735533</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>73.38119600747925</v>
+        <v>73.3811960075229</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>33.9857379673791</v>
+        <v>33.98573796736819</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>62.64933739049966</v>
+        <v>62.64933739053604</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>70.0948253430349</v>
+        <v>70.09482534300216</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>2.484264686544385</v>
+        <v>2.484264686508574</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>35.02520827891258</v>
+        <v>35.02520827891474</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>42.50463202181752</v>
+        <v>42.50463202181775</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>10.1466554937783</v>
+        <v>10.1466554938007</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>31.58423370262128</v>
+        <v>31.58423370262572</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>37.52664706353992</v>
+        <v>37.52664706352105</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>23.9879676533378</v>
+        <v>23.98796765330915</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>41.77185122638659</v>
+        <v>41.77185122639978</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>47.05700022222957</v>
+        <v>47.05700022222775</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>49.51093034729386</v>
+        <v>49.51093034727862</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>56.37712426904987</v>
+        <v>56.37712426908261</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>61.68249912037013</v>
+        <v>61.68249912035058</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>22.29528075414587</v>
+        <v>22.29528075409937</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.94940805043175</v>
+        <v>50.9494080504255</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>58.3933840472715</v>
+        <v>58.39338404727128</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>6.655591258736742</v>
+        <v>6.655591258704227</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>39.20129215422785</v>
+        <v>39.20129215415918</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>46.68490598599372</v>
+        <v>46.68490598595779</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>14.31153831935601</v>
+        <v>14.31153831934146</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.75309789089281</v>
+        <v>35.75309789088576</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>41.69979933521379</v>
+        <v>41.69979933522129</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.15924890989832</v>
+        <v>28.15924890990207</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>45.9473608013785</v>
+        <v>45.94736080134042</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>51.23617259965861</v>
+        <v>51.23617259966816</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>53.6872695760537</v>
+        <v>53.68726957609542</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>60.55524640488031</v>
+        <v>60.5552464048146</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>65.86315770269036</v>
+        <v>65.86315770268524</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>26.4706947704743</v>
+        <v>26.47069477052899</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>55.13284791060719</v>
+        <v>55.13284791063823</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>62.57917485868129</v>
+        <v>62.57917485869118</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>20.68409304660006</v>
+        <v>20.68409304668112</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>53.23270033254128</v>
+        <v>53.23270033253957</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>60.71601294524451</v>
+        <v>60.7160129452428</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.34784937623201</v>
+        <v>28.34784937622656</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>49.79278307240336</v>
+        <v>49.79278307240518</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>55.73893721055877</v>
+        <v>55.73893721054831</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>42.19925532492605</v>
+        <v>42.19925532500074</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>59.99000646053023</v>
+        <v>59.99000646060231</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>65.27860409921581</v>
+        <v>65.27860409928255</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>67.7377118640479</v>
+        <v>67.73771186410053</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>74.60641690932729</v>
+        <v>74.60641690938027</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>79.91485199278461</v>
+        <v>79.91485199283565</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>40.51628637471467</v>
+        <v>40.51628637473684</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>69.18225487422225</v>
+        <v>69.18225487422635</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>76.62861480546925</v>
+        <v>76.62861480546755</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-0.3556173820336639</v>
+        <v>-0.3556173820843682</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>32.18326903538557</v>
+        <v>32.18326903529667</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>39.66263546202297</v>
+        <v>39.66263546196522</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>7.305911257891218</v>
+        <v>7.305911257873937</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.74170507052688</v>
+        <v>28.74170507052234</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>34.68415293798191</v>
+        <v>34.68415293791939</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>21.14617138091976</v>
+        <v>21.1461713808711</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>38.92854946945099</v>
+        <v>38.92854946938937</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>44.21369637690439</v>
+        <v>44.21369637684459</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>46.66734458975893</v>
+        <v>46.66734458978076</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>53.53283098404345</v>
+        <v>53.53283098402913</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>58.83828866842553</v>
+        <v>58.83828866839119</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>19.45343668074984</v>
+        <v>19.45343668072744</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>48.10538147211728</v>
+        <v>48.10538147210352</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>55.54929749701316</v>
+        <v>55.54929749700998</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>3.816850286383875</v>
+        <v>3.816850286372393</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.36049380267762</v>
+        <v>36.36049380257109</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>43.84405022331973</v>
+        <v>43.84405022324584</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.47193562091739</v>
+        <v>11.47193562087669</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>32.91171059721305</v>
+        <v>32.91171059720055</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>38.85844646583926</v>
+        <v>38.85844646579219</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.31859387801317</v>
+        <v>25.31859387805762</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>43.10520009230343</v>
+        <v>43.1052000922833</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>48.39400974136672</v>
+        <v>48.39400974138469</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>50.84482477655886</v>
+        <v>50.84482477654442</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>57.71209400489838</v>
+        <v>57.71209400483244</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>63.0200880617168</v>
+        <v>63.02008806169645</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>23.62999161103344</v>
+        <v>23.6299916110481</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>52.28996188949564</v>
+        <v>52.28996188952144</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>59.73622881525964</v>
+        <v>59.73622881520564</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>17.84486462948198</v>
+        <v>17.84486462943674</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>50.39141442877563</v>
+        <v>50.3914144287231</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>57.87466964539235</v>
+        <v>57.87466964534153</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.50775896157914</v>
+        <v>25.50775896161199</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>46.95090794290511</v>
+        <v>46.95090794290363</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>52.89709651597966</v>
+        <v>52.8970965159999</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>39.35811248334787</v>
+        <v>39.35811248335219</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>57.1473578364531</v>
+        <v>57.14735783644685</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>62.43595333090602</v>
+        <v>62.43595333089454</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>64.89477896777416</v>
+        <v>64.89477896777598</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>71.76277637514406</v>
+        <v>71.76277637513132</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>77.07129423237629</v>
+        <v>77.07129423233991</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>37.67509526358354</v>
+        <v>37.67509526349634</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>66.33888075637205</v>
+        <v>66.33888075638387</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>73.78518066784156</v>
+        <v>73.78518066776391</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-2.887766634647186</v>
+        <v>-2.887766634590569</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.6523548307383</v>
+        <v>29.65235483074421</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>37.1315517933808</v>
+        <v>37.1315517933401</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>4.774077053402927</v>
+        <v>4.774077053325279</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.2110120094445</v>
+        <v>26.21101200943369</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.15320135135105</v>
+        <v>32.15320135132468</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>18.61486885782652</v>
+        <v>18.61486885788302</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>36.39830210929208</v>
+        <v>36.39830210931652</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>41.68326036046776</v>
+        <v>41.68326036047845</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>44.13706363305219</v>
+        <v>44.13706363301308</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>51.00329846637428</v>
+        <v>51.00329846636769</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>56.30820025344108</v>
+        <v>56.30820025342778</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>16.92129970429708</v>
+        <v>16.92129970428628</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>45.57500867962992</v>
+        <v>45.57500867964482</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>53.01866917495884</v>
+        <v>53.01866917497725</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>1.280380650506778</v>
+        <v>1.280380650551002</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.82525919038253</v>
+        <v>33.82525919039538</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>41.30864628681091</v>
+        <v>41.30864628684729</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>8.93578048047366</v>
+        <v>8.935780480533005</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.37669656410808</v>
+        <v>30.37669656410353</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>36.32317405084107</v>
+        <v>36.3231740508081</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>22.78297065789534</v>
+        <v>22.78297065787726</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>40.5706319648592</v>
+        <v>40.57063196487795</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>45.85925311828849</v>
+        <v>45.85925311830872</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>48.31022333938197</v>
+        <v>48.31022333936219</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>55.17824095632839</v>
+        <v>55.17824095634862</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>60.48567907975823</v>
+        <v>60.48567907971515</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>21.09353440465495</v>
+        <v>21.09353440469179</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>49.75526879895686</v>
+        <v>49.75526879895367</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>57.20128039625022</v>
+        <v>57.20128039626864</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>15.30941762284042</v>
+        <v>15.30941762280791</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>47.85720260798698</v>
+        <v>47.85720260794697</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>55.34028851527317</v>
+        <v>55.3402885152693</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>22.97262672800523</v>
+        <v>22.97262672793065</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.41691700970248</v>
+        <v>44.41691700970794</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>50.36284723660558</v>
+        <v>50.36284723655283</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>36.82351218397853</v>
+        <v>36.82351218398581</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>54.61381284073818</v>
+        <v>54.61381284075274</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>59.90221983132674</v>
+        <v>59.9022198313704</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>62.36120063961844</v>
+        <v>62.36120063960389</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>69.22994652483814</v>
+        <v>69.22994652487452</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>74.53790849998549</v>
+        <v>74.53790849996548</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.13966110135934</v>
+        <v>35.13966110137037</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>63.80521092581476</v>
+        <v>63.80521092585114</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>71.25125554920689</v>
+        <v>71.2512555492452</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-9.763131376577824</v>
+        <v>-9.763131376538944</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.77398062296832</v>
+        <v>22.77398062296218</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>30.25306562806302</v>
+        <v>30.25306562807507</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-2.103477112886161</v>
+        <v>-2.103477112888775</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.33108106345433</v>
+        <v>19.33108106347513</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.27326154283899</v>
+        <v>25.27326154286286</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>11.73617635442711</v>
+        <v>11.73617635445041</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.51750192238556</v>
+        <v>29.51750192237908</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.80244549250731</v>
+        <v>34.80244549245706</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>37.25571998354585</v>
+        <v>37.25571998356279</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>44.12098626884163</v>
+        <v>44.1209862688788</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>49.42609893044776</v>
+        <v>49.42609893041502</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>10.04342450824877</v>
+        <v>10.04342450821341</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>38.69390462439376</v>
+        <v>38.69390462433407</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>46.13759150862118</v>
+        <v>46.1375915085948</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-5.587090383457642</v>
+        <v>-5.58709038349118</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.95477867727173</v>
+        <v>26.95477867724183</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>34.43805368781612</v>
+        <v>34.4380536878575</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>2.066121079899609</v>
+        <v>2.066121079957817</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>23.50466040286413</v>
+        <v>23.50466040287913</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.45112891592905</v>
+        <v>29.45112891594042</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>15.91217268745854</v>
+        <v>15.91217268743558</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>33.69772634636147</v>
+        <v>33.69772634635692</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.98633270362595</v>
+        <v>38.98633270366393</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.43677403349714</v>
+        <v>41.43677403354636</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>48.30382310192747</v>
+        <v>48.30382310182572</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>53.61147205507834</v>
+        <v>53.61147205504719</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>14.22355305154404</v>
+        <v>14.22355305157394</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>42.88205849146991</v>
+        <v>42.88205849151186</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>50.32809641983452</v>
+        <v>50.32809641985225</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>8.440951076857665</v>
+        <v>8.440951076797752</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.98572643243151</v>
+        <v>40.98572643235932</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>48.46870024201483</v>
+        <v>48.46870024198527</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>16.10197111094656</v>
+        <v>16.10197111095054</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>37.54388445724633</v>
+        <v>37.54388445728078</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.48980569918078</v>
+        <v>43.48980569914077</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.95171786074352</v>
+        <v>29.95171786076217</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>47.73991070920042</v>
+        <v>47.73991070918064</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>53.02830291118105</v>
+        <v>53.02830291117741</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>55.4867542492909</v>
+        <v>55.48675424926078</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>62.35453151327065</v>
+        <v>62.35453151323848</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>67.66270430526501</v>
+        <v>67.66270430520089</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.26868292084098</v>
+        <v>28.26868292089612</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>56.93100353535724</v>
+        <v>56.93100353533018</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>64.37707448627711</v>
+        <v>64.37707448625517</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-2.369810587555683</v>
+        <v>-2.369810587564437</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.16881166080052</v>
+        <v>30.16881166081587</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>37.64825908893543</v>
+        <v>37.64825908900841</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>5.291465839853096</v>
+        <v>5.291465839890158</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.72702057682657</v>
+        <v>26.72702057679451</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>32.66955947252175</v>
+        <v>32.66955947253152</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>19.13157805543685</v>
+        <v>19.13157805548813</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.91374278850524</v>
+        <v>36.91374278851331</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.19896777363463</v>
+        <v>42.19896777360893</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>44.65260054212113</v>
+        <v>44.65260054214489</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>51.51802223658078</v>
+        <v>51.51802223653633</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>56.82352262551044</v>
+        <v>56.82352262551681</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>17.43897237308224</v>
+        <v>17.43897237313545</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>46.09066249465</v>
+        <v>46.09066249464204</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>53.53465104794029</v>
+        <v>53.53465104793575</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>1.802591749748537</v>
+        <v>1.802591749719319</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.3459710909618</v>
+        <v>34.34597109104923</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>41.82960854663336</v>
+        <v>41.82960854665905</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>9.457424923878399</v>
+        <v>9.457424923896816</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.89696082033161</v>
+        <v>30.89696082038277</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.84378775346384</v>
+        <v>36.84378775344724</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>23.30393524029351</v>
+        <v>23.30393524029453</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>41.09032809665982</v>
+        <v>41.09032809669291</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>46.37921585765273</v>
+        <v>46.37921585767979</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>48.83001542697955</v>
+        <v>48.83001542697591</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>55.69721995872462</v>
+        <v>55.6972199587228</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>61.00525673125853</v>
+        <v>61.00525673126626</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.61546196454149</v>
+        <v>21.61546196448158</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>50.27517756654263</v>
+        <v>50.27517756655002</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>57.72151705616236</v>
+        <v>57.72151705613906</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.8306398733258</v>
+        <v>15.83063987327828</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>48.37692549912763</v>
+        <v>48.3769254991033</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>55.86026175093591</v>
+        <v>55.8602617509084</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>23.4932820277754</v>
+        <v>23.49328202778802</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>44.93619192979984</v>
+        <v>44.93619192979609</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>50.88247156824102</v>
+        <v>50.88247156821533</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>37.34348760769772</v>
+        <v>37.34348760772341</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>55.13251960409739</v>
+        <v>55.13251960413559</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>60.42119321151106</v>
+        <v>60.42119321156358</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>62.88000335383501</v>
+        <v>62.88000335384763</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>69.74793606245052</v>
+        <v>69.74793606239413</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>75.05649664473796</v>
+        <v>75.05649664474853</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>35.66059936385543</v>
+        <v>35.66059936388044</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>64.32413017296207</v>
+        <v>64.3241301729748</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>71.77050265284092</v>
+        <v>71.77050265287184</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>1.032583652711402</v>
+        <v>1.032583652660584</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>33.57088891731437</v>
+        <v>33.57088891727356</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>41.04953091965556</v>
+        <v>41.04953091959553</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>8.6942193443085</v>
+        <v>8.694219344274622</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>30.12983050092223</v>
+        <v>30.12983050088085</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>36.07159696589836</v>
+        <v>36.07159696582901</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>22.53450538846116</v>
+        <v>22.53450538848833</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>40.31672154304395</v>
+        <v>40.31672154304565</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>45.60133037685953</v>
+        <v>45.60133037692456</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>48.05519485537614</v>
+        <v>48.05519485542275</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>54.92056676895752</v>
+        <v>54.92056676898776</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>60.22522266475526</v>
+        <v>60.22522266478311</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>20.84125010466412</v>
+        <v>20.84125010470516</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>49.49281162592749</v>
+        <v>49.49281162593784</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>56.93610217044043</v>
+        <v>56.93610217040973</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>5.203195033632575</v>
+        <v>5.203195033641101</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>37.74625721124435</v>
+        <v>37.74625721125606</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>45.22908900488844</v>
+        <v>45.22908900496621</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>12.85838722944775</v>
+        <v>12.85838722949186</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>34.29797937887972</v>
+        <v>34.29797937881856</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>40.24403366011163</v>
+        <v>40.24403366005547</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>26.70507137466243</v>
+        <v>26.7050713746555</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>44.49151545325581</v>
+        <v>44.49151545327616</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>49.77978685491141</v>
+        <v>49.77978685499577</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>52.23081844171575</v>
+        <v>52.2308184417843</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>59.09797301105957</v>
+        <v>59.09797301105832</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>64.40516510512188</v>
+        <v>64.4051651050755</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>25.01594856148663</v>
+        <v>25.01594856152744</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>53.67553520448505</v>
+        <v>53.67553520448562</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>61.12117651218725</v>
+        <v>61.12117651216577</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>19.23077504853061</v>
+        <v>19.23077504852356</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>51.77674351600397</v>
+        <v>51.77674351599874</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>59.25927406770402</v>
+        <v>59.25927406769345</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.89377610044264</v>
+        <v>26.89377610048118</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>48.33674225121261</v>
+        <v>48.33674225112177</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>54.282249224045</v>
+        <v>54.28224922394518</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>40.74415531922987</v>
+        <v>40.74415531917985</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>58.53323857635858</v>
+        <v>58.5332385763189</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>63.82129578423096</v>
+        <v>63.82129578414945</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>66.28033754791292</v>
+        <v>66.28033754787268</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>73.14822032165077</v>
+        <v>73.14822032160723</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>78.45593616015819</v>
+        <v>78.45593616009475</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>39.06061728948644</v>
+        <v>39.06061728953964</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>67.72401916951705</v>
+        <v>67.72401916956309</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>75.16969341640501</v>
+        <v>75.16969341638534</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-2.126800950799996</v>
+        <v>-2.126800950787036</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.41325346911194</v>
+        <v>30.41325346917811</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>37.89242452930078</v>
+        <v>37.89242452929737</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>5.535213931328009</v>
+        <v>5.535213931374621</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>26.9721533740038</v>
+        <v>26.97215337396447</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>32.91433157489835</v>
+        <v>32.91433157488584</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>19.37595172234658</v>
+        <v>19.37595172240524</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>37.15938696205078</v>
+        <v>37.1593869620385</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>42.44434135257641</v>
+        <v>42.44434135251274</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>44.89810315399857</v>
+        <v>44.89810315394991</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>51.76427739777362</v>
+        <v>51.76427739771996</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>57.06922207893636</v>
+        <v>57.06922207885405</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>17.68238770752507</v>
+        <v>17.68238770764751</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>46.33602619872361</v>
+        <v>46.33602619872236</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>53.77969140903449</v>
+        <v>53.77969140899084</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>2.041350541658836</v>
+        <v>2.041350541637804</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.58616201687753</v>
+        <v>34.58616201687673</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>42.06952316971999</v>
+        <v>42.06952316971113</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>9.696921629594478</v>
+        <v>9.696921629618352</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>31.13784218696603</v>
+        <v>31.13784218698058</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>37.08430849332397</v>
+        <v>37.08430849336967</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>23.54405772203709</v>
+        <v>23.5440577220322</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>41.33172100756142</v>
+        <v>41.33172100755767</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>46.62033825702881</v>
+        <v>46.62033825705087</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>49.0712670209359</v>
+        <v>49.07126702096023</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>55.93922404016426</v>
+        <v>55.93922404017108</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>61.24670505192635</v>
+        <v>61.24670505195909</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>21.85462657459866</v>
+        <v>21.85462657466551</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>50.51629045134801</v>
+        <v>50.51629045148307</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>57.96230672505383</v>
+        <v>57.96230672516513</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>16.06971609742696</v>
+        <v>16.06971609739853</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>48.61743395816857</v>
+        <v>48.61743395829703</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>56.10049394276448</v>
+        <v>56.10049394283099</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>23.7330964014835</v>
+        <v>23.73309640146542</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>45.17739109071713</v>
+        <v>45.17739109069723</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>51.12331015623975</v>
+        <v>51.12331015621064</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>37.58392771870931</v>
+        <v>37.58392771869487</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>55.3742302893821</v>
+        <v>55.37423028933492</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>60.66263339759494</v>
+        <v>60.66263339757686</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>63.12157272770228</v>
+        <v>63.12157272771729</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>69.99025799179989</v>
+        <v>69.99025799184457</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>75.29826285406997</v>
+        <v>75.29826285411499</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>35.90008172791406</v>
+        <v>35.90008172802616</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>64.56556095588698</v>
+        <v>64.56556095588516</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>72.01161028306464</v>
+        <v>72.01161028303781</v>
       </c>
     </row>
   </sheetData>
